--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1426827.474595381</v>
+        <v>1382173.71544649</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5564401.127241941</v>
+        <v>5564401.127241935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9198982.861610396</v>
+        <v>9198982.861610398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7753799.569847556</v>
+        <v>7753799.569847557</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,53 +1381,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>24.29963510270289</v>
+      </c>
+      <c r="S11" t="n">
+        <v>163.2215642657812</v>
+      </c>
+      <c r="T11" t="n">
+        <v>214.7732826995982</v>
+      </c>
+      <c r="U11" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="G11" t="n">
-        <v>219.7970535656594</v>
-      </c>
-      <c r="H11" t="n">
-        <v>219.7970535656594</v>
-      </c>
-      <c r="I11" t="n">
-        <v>133.0790881219817</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>24.29963510270288</v>
-      </c>
-      <c r="S11" t="n">
-        <v>36.21852155594826</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>11.09981627820973</v>
       </c>
     </row>
     <row r="12">
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>32.52899854748281</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T12" t="n">
         <v>194.3467494319119</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>84.01933370734308</v>
+      </c>
+      <c r="W12" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="V12" t="n">
-        <v>219.7970535656594</v>
-      </c>
-      <c r="W12" t="n">
-        <v>36.15491120267942</v>
-      </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.6484988246046</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,28 +1572,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.470455788181056</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>205.6657479602748</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>219.7970535656594</v>
       </c>
-      <c r="C14" t="n">
-        <v>193.5972447806328</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>193.5972447806327</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>143.5062320835493</v>
@@ -1703,10 +1703,10 @@
         <v>135.0219496994826</v>
       </c>
       <c r="H15" t="n">
-        <v>100.7924469552802</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>52.03031991878998</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>32.52899854748281</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.27797100019287</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>189.2910445185746</v>
       </c>
       <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>219.7970535656594</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.4916265725746</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="U16" t="n">
-        <v>7.804898647750865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>219.7970535656594</v>
+        <v>206.7141276581659</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>182.7128943775282</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>337.6412165585531</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>318.9789405005279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>133.0790881219817</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S18" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T18" t="n">
         <v>194.3467494319119</v>
@@ -1985,13 +1985,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.9893467499999</v>
+        <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
-        <v>203.671151418586</v>
+        <v>203.6711514185848</v>
       </c>
     </row>
     <row r="19">
@@ -2007,25 +2007,25 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>57.85596220707588</v>
       </c>
       <c r="G19" t="n">
-        <v>34.2586489162921</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H19" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>29.4916265725746</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6476293484707</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>224.7458397054146</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>328.4442312725322</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -2149,7 +2149,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.539674245784316</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S21" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642178</v>
       </c>
       <c r="T21" t="n">
         <v>194.3467494319119</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>134.5075317136606</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>207.7285503860173</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>134.5075317136606</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>375.3738812527885</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>412.983415433112</v>
@@ -2338,7 +2338,7 @@
         <v>318.9789405005279</v>
       </c>
       <c r="I23" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>163.2215642657812</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>66.65126619898706</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S24" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T24" t="n">
         <v>194.3467494319119</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0064836725184</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>228.0156801868496</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>95.29689687038515</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.983415433112</v>
+        <v>136.8047523757638</v>
       </c>
       <c r="H26" t="n">
-        <v>131.9852715647069</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I26" t="n">
         <v>133.0790881219817</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>163.2215642657812</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S27" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T27" t="n">
         <v>194.3467494319119</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>207.7285503860173</v>
       </c>
       <c r="T28" t="n">
-        <v>224.7458397054146</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0064836725184</v>
+        <v>33.32065553474897</v>
       </c>
       <c r="V28" t="n">
-        <v>134.5075317136606</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.46349042756163</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H29" t="n">
-        <v>318.9789405005279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>133.0790881219817</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3280555788869</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>256.438395053213</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S30" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T30" t="n">
         <v>194.3467494319119</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.8359953582638</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0064836725184</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>63.42894895820155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>104.5364233711287</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>163.2215642657812</v>
+        <v>148.1556776925567</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
@@ -3158,7 +3158,7 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S33" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T33" t="n">
         <v>194.3467494319119</v>
@@ -3192,25 +3192,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.05779906399821</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.4916265725746</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S34" t="n">
         <v>207.7285503860173</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>214.447637818799</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>123.1144954478158</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>345.6149395694348</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U35" t="n">
         <v>251.3280555788869</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>32.52899854748289</v>
+        <v>32.52899854748281</v>
       </c>
       <c r="S36" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642182</v>
       </c>
       <c r="T36" t="n">
         <v>194.3467494319119</v>
       </c>
       <c r="U36" t="n">
-        <v>224.5913046655197</v>
+        <v>224.5913046655192</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>119.5063143128978</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>228.0156801868489</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>150.54586997037</v>
       </c>
       <c r="G38" t="n">
         <v>412.983415433112</v>
@@ -3523,7 +3523,7 @@
         <v>318.9789405005279</v>
       </c>
       <c r="I38" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T38" t="n">
-        <v>182.7128943775282</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S39" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T39" t="n">
         <v>194.3467494319119</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.992352261138937</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>87.81911759094677</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>193.5972447806326</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>24.29963510270288</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>169.2976096779299</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>141.6754839198125</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.0219496994826</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>100.7924469552802</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>52.03031991878998</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>209.7231469277062</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3903,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>82.48386707675857</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0501657567671</v>
+        <v>117.4141076585734</v>
       </c>
       <c r="H43" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.4916265725746</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.470455788181056</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>135.6476293484707</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>193.5972447806327</v>
       </c>
       <c r="F44" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="G44" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="H44" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>30.37568051485157</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.7924469552802</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>52.03031991878998</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>193.5972447806327</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>219.7970535656594</v>
+        <v>12.85060214571694</v>
       </c>
       <c r="V45" t="n">
-        <v>219.7970535656594</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>38.3291950290725</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>154.1708368859401</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>128.5148026391143</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.29652522032546</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>207.7285503860173</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>818.0587630922829</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="C11" t="n">
-        <v>818.0587630922829</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="D11" t="n">
-        <v>818.0587630922829</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="E11" t="n">
-        <v>818.0587630922829</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="F11" t="n">
-        <v>596.0415372683846</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="G11" t="n">
-        <v>374.0243114444862</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H11" t="n">
-        <v>152.0070856205878</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I11" t="n">
         <v>17.58376428525275</v>
@@ -5044,49 +5044,49 @@
         <v>174.1712846035703</v>
       </c>
       <c r="K11" t="n">
-        <v>197.391862381865</v>
+        <v>264.9644270723126</v>
       </c>
       <c r="L11" t="n">
-        <v>262.178260231273</v>
+        <v>329.7508249217207</v>
       </c>
       <c r="M11" t="n">
-        <v>365.1433123491917</v>
+        <v>432.7158770396392</v>
       </c>
       <c r="N11" t="n">
-        <v>474.2729098263881</v>
+        <v>541.8454745168356</v>
       </c>
       <c r="O11" t="n">
-        <v>661.5891312326347</v>
+        <v>631.891579147235</v>
       </c>
       <c r="P11" t="n">
-        <v>879.1882142626375</v>
+        <v>675.1053703215408</v>
       </c>
       <c r="Q11" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="R11" t="n">
-        <v>854.6431283003114</v>
+        <v>854.6431283003112</v>
       </c>
       <c r="S11" t="n">
-        <v>818.0587630922829</v>
+        <v>689.7728613651786</v>
       </c>
       <c r="T11" t="n">
-        <v>818.0587630922829</v>
+        <v>472.8301515676047</v>
       </c>
       <c r="U11" t="n">
-        <v>818.0587630922829</v>
+        <v>250.8129257437064</v>
       </c>
       <c r="V11" t="n">
-        <v>818.0587630922829</v>
+        <v>250.8129257437064</v>
       </c>
       <c r="W11" t="n">
-        <v>818.0587630922829</v>
+        <v>250.8129257437064</v>
       </c>
       <c r="X11" t="n">
-        <v>818.0587630922829</v>
+        <v>250.8129257437064</v>
       </c>
       <c r="Y11" t="n">
-        <v>818.0587630922829</v>
+        <v>239.6009901091511</v>
       </c>
     </row>
     <row r="12">
@@ -5123,43 +5123,43 @@
         <v>17.58376428525275</v>
       </c>
       <c r="K12" t="n">
-        <v>44.59711335410594</v>
+        <v>235.1828473152555</v>
       </c>
       <c r="L12" t="n">
-        <v>262.1961963841087</v>
+        <v>316.6701064189347</v>
       </c>
       <c r="M12" t="n">
-        <v>376.160930720356</v>
+        <v>430.6348407551819</v>
       </c>
       <c r="N12" t="n">
-        <v>507.1904012546867</v>
+        <v>561.6643112895125</v>
       </c>
       <c r="O12" t="n">
-        <v>605.3924677899698</v>
+        <v>659.8663778247957</v>
       </c>
       <c r="P12" t="n">
-        <v>671.4781212626965</v>
+        <v>877.4654608547985</v>
       </c>
       <c r="Q12" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="R12" t="n">
-        <v>846.3306399722509</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="S12" t="n">
-        <v>694.4481761700105</v>
+        <v>727.3057504603969</v>
       </c>
       <c r="T12" t="n">
-        <v>498.1383282589883</v>
+        <v>530.9959025493747</v>
       </c>
       <c r="U12" t="n">
-        <v>276.1211024350899</v>
+        <v>530.9959025493747</v>
       </c>
       <c r="V12" t="n">
-        <v>54.10387661119157</v>
+        <v>446.1278887035736</v>
       </c>
       <c r="W12" t="n">
-        <v>17.58376428525275</v>
+        <v>224.1106628796753</v>
       </c>
       <c r="X12" t="n">
         <v>17.58376428525275</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6220973048789</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="C13" t="n">
-        <v>869.6220973048789</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="D13" t="n">
-        <v>767.9569469769955</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="E13" t="n">
-        <v>619.4977306404306</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="F13" t="n">
-        <v>471.8623554790119</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="G13" t="n">
-        <v>303.1248143105603</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H13" t="n">
-        <v>147.3966962439541</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I13" t="n">
         <v>17.58376428525275</v>
@@ -5202,49 +5202,49 @@
         <v>17.58376428525275</v>
       </c>
       <c r="K13" t="n">
-        <v>99.50755206227245</v>
+        <v>99.50755206227234</v>
       </c>
       <c r="L13" t="n">
-        <v>260.145410180351</v>
+        <v>260.1454101803509</v>
       </c>
       <c r="M13" t="n">
-        <v>440.1084080985506</v>
+        <v>440.1084080985505</v>
       </c>
       <c r="N13" t="n">
-        <v>620.9335500581744</v>
+        <v>620.9335500581743</v>
       </c>
       <c r="O13" t="n">
-        <v>772.61823949979</v>
+        <v>772.6182394997899</v>
       </c>
       <c r="P13" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="Q13" t="n">
-        <v>869.6220973048789</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="R13" t="n">
-        <v>869.6220973048789</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="S13" t="n">
-        <v>869.6220973048789</v>
+        <v>669.3613956909028</v>
       </c>
       <c r="T13" t="n">
-        <v>869.6220973048789</v>
+        <v>669.3613956909028</v>
       </c>
       <c r="U13" t="n">
-        <v>869.6220973048789</v>
+        <v>461.6182159330494</v>
       </c>
       <c r="V13" t="n">
-        <v>869.6220973048789</v>
+        <v>461.6182159330494</v>
       </c>
       <c r="W13" t="n">
-        <v>869.6220973048789</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="X13" t="n">
-        <v>869.6220973048789</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="Y13" t="n">
-        <v>869.6220973048789</v>
+        <v>17.58376428525275</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213.1365367909425</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="C14" t="n">
-        <v>17.58376428525275</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="D14" t="n">
-        <v>17.58376428525275</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="E14" t="n">
-        <v>17.58376428525275</v>
+        <v>461.6182159330494</v>
       </c>
       <c r="F14" t="n">
-        <v>17.58376428525275</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="G14" t="n">
-        <v>17.58376428525275</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="H14" t="n">
         <v>17.58376428525275</v>
@@ -5284,46 +5284,46 @@
         <v>391.7703676335731</v>
       </c>
       <c r="L14" t="n">
-        <v>533.8336688628173</v>
+        <v>456.5567654829811</v>
       </c>
       <c r="M14" t="n">
-        <v>636.7987209807359</v>
+        <v>559.5218176008997</v>
       </c>
       <c r="N14" t="n">
-        <v>745.9283184579323</v>
+        <v>668.6514150780961</v>
       </c>
       <c r="O14" t="n">
-        <v>835.9744230883317</v>
+        <v>835.9744230883316</v>
       </c>
       <c r="P14" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="Q14" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="R14" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="S14" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="T14" t="n">
-        <v>879.1882142626375</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="U14" t="n">
-        <v>879.1882142626375</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="V14" t="n">
-        <v>879.1882142626375</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="W14" t="n">
-        <v>879.1882142626375</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="X14" t="n">
-        <v>657.1709884387392</v>
+        <v>683.6354417569478</v>
       </c>
       <c r="Y14" t="n">
-        <v>435.1537626148408</v>
+        <v>683.6354417569478</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>610.9013222289658</v>
+        <v>298.9253620458911</v>
       </c>
       <c r="C15" t="n">
-        <v>610.9013222289658</v>
+        <v>298.9253620458911</v>
       </c>
       <c r="D15" t="n">
-        <v>610.9013222289658</v>
+        <v>298.9253620458911</v>
       </c>
       <c r="E15" t="n">
-        <v>453.2917932318205</v>
+        <v>298.9253620458911</v>
       </c>
       <c r="F15" t="n">
-        <v>308.3360032484374</v>
+        <v>153.969572062508</v>
       </c>
       <c r="G15" t="n">
-        <v>171.9501954711822</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H15" t="n">
-        <v>70.13964299110123</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I15" t="n">
         <v>17.58376428525275</v>
       </c>
       <c r="J15" t="n">
-        <v>118.6282638368178</v>
+        <v>40.82770034228457</v>
       </c>
       <c r="K15" t="n">
-        <v>145.641612905671</v>
+        <v>258.4267833722873</v>
       </c>
       <c r="L15" t="n">
-        <v>227.1288720093502</v>
+        <v>476.0258664022901</v>
       </c>
       <c r="M15" t="n">
-        <v>341.0936063455975</v>
+        <v>589.9906007385373</v>
       </c>
       <c r="N15" t="n">
-        <v>472.1230768799281</v>
+        <v>721.020071272868</v>
       </c>
       <c r="O15" t="n">
-        <v>611.5120448082102</v>
+        <v>819.2221378081512</v>
       </c>
       <c r="P15" t="n">
-        <v>671.4781212626965</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="Q15" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="R15" t="n">
-        <v>846.3306399722509</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="S15" t="n">
-        <v>832.9185480528641</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="T15" t="n">
-        <v>832.9185480528641</v>
+        <v>687.9851389913499</v>
       </c>
       <c r="U15" t="n">
-        <v>610.9013222289658</v>
+        <v>687.9851389913499</v>
       </c>
       <c r="V15" t="n">
-        <v>610.9013222289658</v>
+        <v>687.9851389913499</v>
       </c>
       <c r="W15" t="n">
-        <v>610.9013222289658</v>
+        <v>465.9679131674516</v>
       </c>
       <c r="X15" t="n">
-        <v>610.9013222289658</v>
+        <v>465.9679131674516</v>
       </c>
       <c r="Y15" t="n">
-        <v>610.9013222289658</v>
+        <v>465.9679131674516</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>649.28725243091</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="C16" t="n">
-        <v>649.28725243091</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="D16" t="n">
-        <v>649.28725243091</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="E16" t="n">
-        <v>649.28725243091</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="F16" t="n">
-        <v>501.6518772694913</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="G16" t="n">
-        <v>332.9143361010397</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H16" t="n">
-        <v>177.1862180344335</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I16" t="n">
-        <v>47.37328607573215</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="J16" t="n">
         <v>17.58376428525275</v>
       </c>
       <c r="K16" t="n">
-        <v>99.50755206227251</v>
+        <v>99.50755206227242</v>
       </c>
       <c r="L16" t="n">
-        <v>260.1454101803511</v>
+        <v>260.145410180351</v>
       </c>
       <c r="M16" t="n">
-        <v>440.1084080985507</v>
+        <v>440.1084080985506</v>
       </c>
       <c r="N16" t="n">
-        <v>620.9335500581744</v>
+        <v>620.9335500581743</v>
       </c>
       <c r="O16" t="n">
-        <v>772.61823949979</v>
+        <v>772.6182394997899</v>
       </c>
       <c r="P16" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="Q16" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="R16" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="S16" t="n">
-        <v>879.1882142626375</v>
+        <v>669.3613956909028</v>
       </c>
       <c r="T16" t="n">
-        <v>879.1882142626375</v>
+        <v>447.3441698670044</v>
       </c>
       <c r="U16" t="n">
-        <v>871.3044782548084</v>
+        <v>447.3441698670044</v>
       </c>
       <c r="V16" t="n">
-        <v>871.3044782548084</v>
+        <v>447.3441698670044</v>
       </c>
       <c r="W16" t="n">
-        <v>649.28725243091</v>
+        <v>238.5420207173419</v>
       </c>
       <c r="X16" t="n">
-        <v>649.28725243091</v>
+        <v>238.5420207173419</v>
       </c>
       <c r="Y16" t="n">
-        <v>649.28725243091</v>
+        <v>17.58376428525275</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2455.882735119091</v>
+        <v>888.4906802808503</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.190719281775</v>
+        <v>547.4389463833219</v>
       </c>
       <c r="D17" t="n">
-        <v>1724.983918519554</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="E17" t="n">
-        <v>1337.996003615223</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="F17" t="n">
-        <v>926.5880607055861</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="G17" t="n">
-        <v>509.4330956216346</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="H17" t="n">
         <v>187.2321456211013</v>
       </c>
       <c r="I17" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J17" t="n">
-        <v>138.1321958894512</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="K17" t="n">
-        <v>495.0928904510171</v>
+        <v>409.7695188473321</v>
       </c>
       <c r="L17" t="n">
-        <v>989.903274801569</v>
+        <v>904.5799031978838</v>
       </c>
       <c r="M17" t="n">
-        <v>1555.687461003708</v>
+        <v>1470.364089400023</v>
       </c>
       <c r="N17" t="n">
-        <v>2115.109451855483</v>
+        <v>2029.786080251798</v>
       </c>
       <c r="O17" t="n">
-        <v>2597.227423114005</v>
+        <v>2265.903473180646</v>
       </c>
       <c r="P17" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="Q17" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="R17" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="S17" t="n">
-        <v>2640.441214288311</v>
+        <v>2475.570947353178</v>
       </c>
       <c r="T17" t="n">
-        <v>2640.441214288311</v>
+        <v>2258.628237555604</v>
       </c>
       <c r="U17" t="n">
-        <v>2640.441214288311</v>
+        <v>2004.761514748647</v>
       </c>
       <c r="V17" t="n">
-        <v>2640.441214288311</v>
+        <v>2004.761514748647</v>
       </c>
       <c r="W17" t="n">
-        <v>2640.441214288311</v>
+        <v>1650.690689495562</v>
       </c>
       <c r="X17" t="n">
-        <v>2640.441214288311</v>
+        <v>1276.083013605492</v>
       </c>
       <c r="Y17" t="n">
-        <v>2640.441214288311</v>
+        <v>1276.083013605492</v>
       </c>
     </row>
     <row r="18">
@@ -5591,52 +5591,52 @@
         <v>105.3647029916147</v>
       </c>
       <c r="I18" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J18" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K18" t="n">
-        <v>79.82217335461941</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8481136478412</v>
+        <v>916.4645595624561</v>
       </c>
       <c r="M18" t="n">
-        <v>1124.302781621088</v>
+        <v>1509.919227535703</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.863160779542</v>
+        <v>1640.948698070034</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.585871242145</v>
+        <v>2144.671408532638</v>
       </c>
       <c r="P18" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.731121288369</v>
       </c>
       <c r="Q18" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="R18" t="n">
-        <v>2607.583639997924</v>
+        <v>2607.583639997923</v>
       </c>
       <c r="S18" t="n">
-        <v>2455.701176195684</v>
+        <v>2455.701176195683</v>
       </c>
       <c r="T18" t="n">
-        <v>2259.391328284662</v>
+        <v>2259.391328284661</v>
       </c>
       <c r="U18" t="n">
         <v>2032.531424582116</v>
       </c>
       <c r="V18" t="n">
-        <v>1798.280181107717</v>
+        <v>1798.280181107716</v>
       </c>
       <c r="W18" t="n">
-        <v>1545.765689441051</v>
+        <v>1545.76568944105</v>
       </c>
       <c r="X18" t="n">
-        <v>1339.238790846628</v>
+        <v>1339.238790846627</v>
       </c>
       <c r="Y18" t="n">
         <v>1133.510355070279</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.3794671380143</v>
+        <v>430.4974045669403</v>
       </c>
       <c r="C19" t="n">
-        <v>550.3794671380143</v>
+        <v>430.4974045669403</v>
       </c>
       <c r="D19" t="n">
-        <v>550.3794671380143</v>
+        <v>279.986731319951</v>
       </c>
       <c r="E19" t="n">
-        <v>550.3794671380143</v>
+        <v>279.986731319951</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7440919765957</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="G19" t="n">
-        <v>368.1393961015531</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="H19" t="n">
-        <v>212.4112780349469</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="I19" t="n">
-        <v>82.59834607624562</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J19" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="K19" t="n">
         <v>134.7326120627859</v>
@@ -5697,28 +5697,28 @@
         <v>914.4132742631509</v>
       </c>
       <c r="R19" t="n">
-        <v>777.3954668404533</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="S19" t="n">
-        <v>777.3954668404533</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="T19" t="n">
-        <v>550.3794671380143</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="U19" t="n">
-        <v>550.3794671380143</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="V19" t="n">
-        <v>550.3794671380143</v>
+        <v>658.9220105591719</v>
       </c>
       <c r="W19" t="n">
-        <v>550.3794671380143</v>
+        <v>658.9220105591719</v>
       </c>
       <c r="X19" t="n">
-        <v>550.3794671380143</v>
+        <v>430.4974045669403</v>
       </c>
       <c r="Y19" t="n">
-        <v>550.3794671380143</v>
+        <v>430.4974045669403</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>918.1309622206378</v>
+        <v>801.7256391399524</v>
       </c>
       <c r="C20" t="n">
-        <v>547.438946383322</v>
+        <v>801.7256391399524</v>
       </c>
       <c r="D20" t="n">
-        <v>187.2321456211013</v>
+        <v>801.7256391399524</v>
       </c>
       <c r="E20" t="n">
-        <v>187.2321456211013</v>
+        <v>469.9637893697177</v>
       </c>
       <c r="F20" t="n">
-        <v>187.2321456211013</v>
+        <v>469.9637893697177</v>
       </c>
       <c r="G20" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="H20" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="I20" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J20" t="n">
-        <v>198.8801125842152</v>
+        <v>209.3963446040837</v>
       </c>
       <c r="K20" t="n">
-        <v>555.8408071457811</v>
+        <v>566.3570391656496</v>
       </c>
       <c r="L20" t="n">
-        <v>1050.651191496333</v>
+        <v>1061.167423516201</v>
       </c>
       <c r="M20" t="n">
-        <v>1616.435377698472</v>
+        <v>1470.573060503831</v>
       </c>
       <c r="N20" t="n">
-        <v>2175.857368550247</v>
+        <v>1579.702657981027</v>
       </c>
       <c r="O20" t="n">
-        <v>2265.903473180647</v>
+        <v>2061.820629239549</v>
       </c>
       <c r="P20" t="n">
-        <v>2640.441214288311</v>
+        <v>2436.358370347214</v>
       </c>
       <c r="Q20" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.896128325985</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="S20" t="n">
-        <v>2451.025861390853</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="T20" t="n">
-        <v>2234.083151593279</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="U20" t="n">
-        <v>1980.216428786322</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="V20" t="n">
-        <v>1648.364689874687</v>
+        <v>2308.589475376674</v>
       </c>
       <c r="W20" t="n">
-        <v>1294.293864621601</v>
+        <v>1954.518650123589</v>
       </c>
       <c r="X20" t="n">
-        <v>919.686188731531</v>
+        <v>1579.910974233519</v>
       </c>
       <c r="Y20" t="n">
-        <v>918.1309622206378</v>
+        <v>1189.317972464594</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.4678039487181</v>
+        <v>966.467803948718</v>
       </c>
       <c r="C21" t="n">
-        <v>793.7146888705354</v>
+        <v>793.7146888705353</v>
       </c>
       <c r="D21" t="n">
         <v>646.1263822294793</v>
@@ -5828,31 +5828,31 @@
         <v>105.3647029916147</v>
       </c>
       <c r="I21" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J21" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K21" t="n">
-        <v>79.82217335461941</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L21" t="n">
-        <v>543.1266519827402</v>
+        <v>916.4645595624561</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.302781621088</v>
+        <v>1509.919227535703</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.863160779542</v>
+        <v>1640.948698070034</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.585871242145</v>
+        <v>2044.875778242204</v>
       </c>
       <c r="P21" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.731121288369</v>
       </c>
       <c r="Q21" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="R21" t="n">
         <v>2607.583639997924</v>
@@ -5864,19 +5864,19 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U21" t="n">
-        <v>2032.531424582116</v>
+        <v>2032.531424582117</v>
       </c>
       <c r="V21" t="n">
         <v>1798.280181107717</v>
       </c>
       <c r="W21" t="n">
-        <v>1545.76568944105</v>
+        <v>1545.765689441051</v>
       </c>
       <c r="X21" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y21" t="n">
-        <v>1133.510355070279</v>
+        <v>1133.510355070278</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="C22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="D22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="E22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="F22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="G22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="H22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="I22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="K22" t="n">
         <v>134.7326120627859</v>
@@ -5934,28 +5934,28 @@
         <v>914.4132742631509</v>
       </c>
       <c r="R22" t="n">
-        <v>778.5470806129887</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="S22" t="n">
-        <v>568.720262041254</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="T22" t="n">
-        <v>341.7042623388151</v>
+        <v>477.5704559889773</v>
       </c>
       <c r="U22" t="n">
-        <v>52.80882428576622</v>
+        <v>188.6750179359285</v>
       </c>
       <c r="V22" t="n">
-        <v>52.80882428576622</v>
+        <v>188.6750179359285</v>
       </c>
       <c r="W22" t="n">
-        <v>52.80882428576622</v>
+        <v>188.6750179359285</v>
       </c>
       <c r="X22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2063.433528066211</v>
+        <v>1549.844670111898</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.741512228895</v>
+        <v>1179.152654274582</v>
       </c>
       <c r="D23" t="n">
-        <v>1692.741512228895</v>
+        <v>1179.152654274582</v>
       </c>
       <c r="E23" t="n">
-        <v>1305.753597324564</v>
+        <v>792.164739370251</v>
       </c>
       <c r="F23" t="n">
-        <v>926.5880607055861</v>
+        <v>792.164739370251</v>
       </c>
       <c r="G23" t="n">
-        <v>509.4330956216346</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="H23" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="I23" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J23" t="n">
-        <v>209.3963446040838</v>
+        <v>209.3963446040837</v>
       </c>
       <c r="K23" t="n">
-        <v>409.9784899511407</v>
+        <v>566.3570391656496</v>
       </c>
       <c r="L23" t="n">
-        <v>904.7888743016925</v>
+        <v>1061.167423516201</v>
       </c>
       <c r="M23" t="n">
-        <v>1470.573060503832</v>
+        <v>1164.13247563412</v>
       </c>
       <c r="N23" t="n">
-        <v>1579.702657981028</v>
+        <v>1579.702657981027</v>
       </c>
       <c r="O23" t="n">
-        <v>2061.82062923955</v>
+        <v>2061.820629239549</v>
       </c>
       <c r="P23" t="n">
-        <v>2436.358370347215</v>
+        <v>2436.358370347214</v>
       </c>
       <c r="Q23" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="R23" t="n">
-        <v>2615.896128325985</v>
+        <v>2640.44121428831</v>
       </c>
       <c r="S23" t="n">
-        <v>2451.025861390853</v>
+        <v>2475.570947353178</v>
       </c>
       <c r="T23" t="n">
-        <v>2451.025861390853</v>
+        <v>2258.628237555604</v>
       </c>
       <c r="U23" t="n">
-        <v>2451.025861390853</v>
+        <v>2004.761514748647</v>
       </c>
       <c r="V23" t="n">
-        <v>2451.025861390853</v>
+        <v>2004.761514748647</v>
       </c>
       <c r="W23" t="n">
-        <v>2451.025861390853</v>
+        <v>1937.437003436539</v>
       </c>
       <c r="X23" t="n">
-        <v>2451.025861390853</v>
+        <v>1937.437003436539</v>
       </c>
       <c r="Y23" t="n">
-        <v>2451.025861390853</v>
+        <v>1937.437003436539</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.467803948718</v>
+        <v>966.4678039487183</v>
       </c>
       <c r="C24" t="n">
-        <v>793.714688870535</v>
+        <v>793.7146888705354</v>
       </c>
       <c r="D24" t="n">
-        <v>646.1263822294788</v>
+        <v>646.1263822294793</v>
       </c>
       <c r="E24" t="n">
-        <v>488.5168532323335</v>
+        <v>488.516853232334</v>
       </c>
       <c r="F24" t="n">
-        <v>343.5610632489504</v>
+        <v>343.5610632489509</v>
       </c>
       <c r="G24" t="n">
-        <v>207.1752554716954</v>
+        <v>207.1752554716957</v>
       </c>
       <c r="H24" t="n">
         <v>105.3647029916147</v>
       </c>
       <c r="I24" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J24" t="n">
-        <v>153.8533238373313</v>
+        <v>54.05769354689841</v>
       </c>
       <c r="K24" t="n">
-        <v>453.1600809343354</v>
+        <v>353.3644506439025</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6473400380146</v>
+        <v>816.6689292720232</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.102008011262</v>
+        <v>1410.12359724527</v>
       </c>
       <c r="N24" t="n">
-        <v>1752.662387169715</v>
+        <v>1541.153067779601</v>
       </c>
       <c r="O24" t="n">
-        <v>2256.385097632319</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P24" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q24" t="n">
         <v>2640.441214288311</v>
@@ -6101,19 +6101,19 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U24" t="n">
-        <v>2032.531424582116</v>
+        <v>2032.531424582117</v>
       </c>
       <c r="V24" t="n">
         <v>1798.280181107717</v>
       </c>
       <c r="W24" t="n">
-        <v>1545.76568944105</v>
+        <v>1545.765689441051</v>
       </c>
       <c r="X24" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y24" t="n">
-        <v>1133.510355070278</v>
+        <v>1133.510355070279</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="C25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="D25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="E25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="F25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="G25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="H25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="I25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="J25" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576621</v>
       </c>
       <c r="K25" t="n">
         <v>134.7326120627859</v>
@@ -6180,19 +6180,19 @@
         <v>914.4132742631509</v>
       </c>
       <c r="U25" t="n">
-        <v>914.4132742631509</v>
+        <v>625.5178362101021</v>
       </c>
       <c r="V25" t="n">
-        <v>914.4132742631509</v>
+        <v>370.0265725061232</v>
       </c>
       <c r="W25" t="n">
-        <v>684.0944053875453</v>
+        <v>370.0265725061232</v>
       </c>
       <c r="X25" t="n">
-        <v>455.6697993953138</v>
+        <v>273.7670807178553</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.7115429632246</v>
+        <v>52.80882428576621</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1880.012326340193</v>
+        <v>1378.518530782549</v>
       </c>
       <c r="C26" t="n">
-        <v>1509.320310502877</v>
+        <v>1007.826514945233</v>
       </c>
       <c r="D26" t="n">
-        <v>1149.113509740657</v>
+        <v>647.6197141830122</v>
       </c>
       <c r="E26" t="n">
-        <v>1149.113509740657</v>
+        <v>647.6197141830122</v>
       </c>
       <c r="F26" t="n">
-        <v>737.7055668310195</v>
+        <v>647.6197141830122</v>
       </c>
       <c r="G26" t="n">
-        <v>320.550601747068</v>
+        <v>509.4330956216346</v>
       </c>
       <c r="H26" t="n">
         <v>187.2321456211013</v>
       </c>
       <c r="I26" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576624</v>
       </c>
       <c r="J26" t="n">
-        <v>52.80882428576622</v>
+        <v>209.3963446040838</v>
       </c>
       <c r="K26" t="n">
-        <v>409.7695188473321</v>
+        <v>566.3570391656497</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5683475552365</v>
+        <v>785.8204308604729</v>
       </c>
       <c r="M26" t="n">
-        <v>1412.352533757376</v>
+        <v>1351.604617062612</v>
       </c>
       <c r="N26" t="n">
-        <v>1971.774524609151</v>
+        <v>1911.026607914387</v>
       </c>
       <c r="O26" t="n">
-        <v>2061.82062923955</v>
+        <v>2393.144579172909</v>
       </c>
       <c r="P26" t="n">
         <v>2436.358370347215</v>
       </c>
       <c r="Q26" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.441214288312</v>
       </c>
       <c r="R26" t="n">
-        <v>2615.896128325985</v>
+        <v>2640.441214288312</v>
       </c>
       <c r="S26" t="n">
-        <v>2451.025861390853</v>
+        <v>2475.570947353179</v>
       </c>
       <c r="T26" t="n">
-        <v>2234.083151593279</v>
+        <v>2475.570947353179</v>
       </c>
       <c r="U26" t="n">
-        <v>2234.083151593279</v>
+        <v>2475.570947353179</v>
       </c>
       <c r="V26" t="n">
-        <v>2234.083151593279</v>
+        <v>2143.719208441544</v>
       </c>
       <c r="W26" t="n">
-        <v>1880.012326340193</v>
+        <v>2143.719208441544</v>
       </c>
       <c r="X26" t="n">
-        <v>1880.012326340193</v>
+        <v>1769.111532551474</v>
       </c>
       <c r="Y26" t="n">
-        <v>1880.012326340193</v>
+        <v>1378.518530782549</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.467803948718</v>
+        <v>966.4678039487185</v>
       </c>
       <c r="C27" t="n">
-        <v>793.714688870535</v>
+        <v>793.7146888705355</v>
       </c>
       <c r="D27" t="n">
-        <v>646.1263822294788</v>
+        <v>646.1263822294793</v>
       </c>
       <c r="E27" t="n">
-        <v>488.5168532323335</v>
+        <v>488.5168532323339</v>
       </c>
       <c r="F27" t="n">
-        <v>343.5610632489504</v>
+        <v>343.5610632489509</v>
       </c>
       <c r="G27" t="n">
         <v>207.1752554716954</v>
       </c>
       <c r="H27" t="n">
-        <v>105.3647029916147</v>
+        <v>105.3647029916146</v>
       </c>
       <c r="I27" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576624</v>
       </c>
       <c r="J27" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K27" t="n">
-        <v>79.82217335461941</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L27" t="n">
-        <v>530.8481136478412</v>
+        <v>916.4645595624561</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.302781621088</v>
+        <v>1509.919227535703</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.863160779542</v>
+        <v>1640.948698070034</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.585871242145</v>
+        <v>2144.671408532638</v>
       </c>
       <c r="P27" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.731121288371</v>
       </c>
       <c r="Q27" t="n">
-        <v>2640.441214288311</v>
+        <v>2640.441214288312</v>
       </c>
       <c r="R27" t="n">
-        <v>2607.583639997924</v>
+        <v>2607.583639997925</v>
       </c>
       <c r="S27" t="n">
         <v>2455.701176195684</v>
@@ -6338,19 +6338,19 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U27" t="n">
-        <v>2032.531424582116</v>
+        <v>2032.531424582117</v>
       </c>
       <c r="V27" t="n">
-        <v>1798.280181107717</v>
+        <v>1798.280181107718</v>
       </c>
       <c r="W27" t="n">
-        <v>1545.76568944105</v>
+        <v>1545.765689441051</v>
       </c>
       <c r="X27" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y27" t="n">
-        <v>1133.510355070278</v>
+        <v>1133.510355070279</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.80882428576622</v>
+        <v>221.5463654542179</v>
       </c>
       <c r="C28" t="n">
-        <v>52.80882428576622</v>
+        <v>221.5463654542179</v>
       </c>
       <c r="D28" t="n">
-        <v>52.80882428576622</v>
+        <v>221.5463654542179</v>
       </c>
       <c r="E28" t="n">
-        <v>52.80882428576622</v>
+        <v>221.5463654542179</v>
       </c>
       <c r="F28" t="n">
-        <v>52.80882428576622</v>
+        <v>221.5463654542179</v>
       </c>
       <c r="G28" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576624</v>
       </c>
       <c r="H28" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576624</v>
       </c>
       <c r="I28" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576624</v>
       </c>
       <c r="J28" t="n">
-        <v>52.80882428576622</v>
+        <v>52.80882428576624</v>
       </c>
       <c r="K28" t="n">
         <v>134.7326120627859</v>
@@ -6414,22 +6414,22 @@
         <v>704.5864556914163</v>
       </c>
       <c r="T28" t="n">
-        <v>477.5704559889773</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="U28" t="n">
-        <v>188.6750179359285</v>
+        <v>670.9292278785385</v>
       </c>
       <c r="V28" t="n">
-        <v>52.80882428576622</v>
+        <v>670.9292278785385</v>
       </c>
       <c r="W28" t="n">
-        <v>52.80882428576622</v>
+        <v>670.9292278785385</v>
       </c>
       <c r="X28" t="n">
-        <v>52.80882428576622</v>
+        <v>442.5046218863069</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.80882428576622</v>
+        <v>221.5463654542179</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>509.4330956216346</v>
+        <v>1773.474984356337</v>
       </c>
       <c r="C29" t="n">
-        <v>509.4330956216346</v>
+        <v>1402.782968519021</v>
       </c>
       <c r="D29" t="n">
-        <v>509.4330956216346</v>
+        <v>1402.782968519021</v>
       </c>
       <c r="E29" t="n">
-        <v>509.4330956216346</v>
+        <v>1015.79505361469</v>
       </c>
       <c r="F29" t="n">
-        <v>509.4330956216346</v>
+        <v>604.3871107050529</v>
       </c>
       <c r="G29" t="n">
-        <v>509.4330956216346</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="H29" t="n">
         <v>187.2321456211013</v>
@@ -6463,52 +6463,52 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J29" t="n">
-        <v>52.80882428576622</v>
+        <v>209.3963446040838</v>
       </c>
       <c r="K29" t="n">
-        <v>163.7689405176586</v>
+        <v>566.3570391656497</v>
       </c>
       <c r="L29" t="n">
-        <v>658.5793248682104</v>
+        <v>1061.167423516201</v>
       </c>
       <c r="M29" t="n">
-        <v>1224.363511070349</v>
+        <v>1626.95160971834</v>
       </c>
       <c r="N29" t="n">
-        <v>1783.785501922125</v>
+        <v>1736.081207195537</v>
       </c>
       <c r="O29" t="n">
-        <v>2265.903473180647</v>
+        <v>2218.199178454059</v>
       </c>
       <c r="P29" t="n">
-        <v>2640.441214288311</v>
+        <v>2436.358370347215</v>
       </c>
       <c r="Q29" t="n">
         <v>2640.441214288311</v>
       </c>
       <c r="R29" t="n">
-        <v>2615.896128325985</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="S29" t="n">
-        <v>2451.025861390853</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="T29" t="n">
-        <v>2234.083151593279</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="U29" t="n">
-        <v>1980.216428786322</v>
+        <v>2386.574491481354</v>
       </c>
       <c r="V29" t="n">
-        <v>1648.364689874687</v>
+        <v>2127.545809609422</v>
       </c>
       <c r="W29" t="n">
-        <v>1294.293864621601</v>
+        <v>1773.474984356337</v>
       </c>
       <c r="X29" t="n">
-        <v>919.686188731531</v>
+        <v>1773.474984356337</v>
       </c>
       <c r="Y29" t="n">
-        <v>529.093186962606</v>
+        <v>1773.474984356337</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.4678039487183</v>
+        <v>966.467803948718</v>
       </c>
       <c r="C30" t="n">
-        <v>793.7146888705354</v>
+        <v>793.714688870535</v>
       </c>
       <c r="D30" t="n">
-        <v>646.1263822294793</v>
+        <v>646.1263822294788</v>
       </c>
       <c r="E30" t="n">
-        <v>488.516853232334</v>
+        <v>488.5168532323335</v>
       </c>
       <c r="F30" t="n">
-        <v>343.5610632489509</v>
+        <v>343.5610632489504</v>
       </c>
       <c r="G30" t="n">
-        <v>207.1752554716957</v>
+        <v>207.1752554716954</v>
       </c>
       <c r="H30" t="n">
         <v>105.3647029916147</v>
@@ -6542,25 +6542,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J30" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K30" t="n">
-        <v>79.82217335461941</v>
+        <v>353.3644506439025</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8481136478412</v>
+        <v>816.6689292720232</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.302781621088</v>
+        <v>1410.12359724527</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.863160779542</v>
+        <v>1541.153067779601</v>
       </c>
       <c r="O30" t="n">
-        <v>2252.585871242145</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P30" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q30" t="n">
         <v>2640.441214288311</v>
@@ -6575,19 +6575,19 @@
         <v>2259.391328284662</v>
       </c>
       <c r="U30" t="n">
-        <v>2032.531424582117</v>
+        <v>2032.531424582116</v>
       </c>
       <c r="V30" t="n">
         <v>1798.280181107717</v>
       </c>
       <c r="W30" t="n">
-        <v>1545.765689441051</v>
+        <v>1545.76568944105</v>
       </c>
       <c r="X30" t="n">
         <v>1339.238790846628</v>
       </c>
       <c r="Y30" t="n">
-        <v>1133.510355070279</v>
+        <v>1133.510355070278</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>668.4409101733677</v>
+        <v>203.3194975327555</v>
       </c>
       <c r="C31" t="n">
-        <v>499.414089030739</v>
+        <v>203.3194975327555</v>
       </c>
       <c r="D31" t="n">
-        <v>348.9034157837498</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="E31" t="n">
-        <v>200.4441994471849</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="F31" t="n">
         <v>52.80882428576622</v>
@@ -6651,22 +6651,22 @@
         <v>914.4132742631509</v>
       </c>
       <c r="T31" t="n">
-        <v>914.4132742631509</v>
+        <v>720.639541578036</v>
       </c>
       <c r="U31" t="n">
-        <v>914.4132742631509</v>
+        <v>431.7441035249871</v>
       </c>
       <c r="V31" t="n">
-        <v>914.4132742631509</v>
+        <v>431.7441035249871</v>
       </c>
       <c r="W31" t="n">
-        <v>914.4132742631509</v>
+        <v>431.7441035249871</v>
       </c>
       <c r="X31" t="n">
-        <v>914.4132742631509</v>
+        <v>203.3194975327555</v>
       </c>
       <c r="Y31" t="n">
-        <v>850.3436288508261</v>
+        <v>203.3194975327555</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>529.093186962606</v>
+        <v>1337.996003615223</v>
       </c>
       <c r="C32" t="n">
-        <v>158.4011711252901</v>
+        <v>1337.996003615223</v>
       </c>
       <c r="D32" t="n">
-        <v>52.80882428576622</v>
+        <v>1337.996003615223</v>
       </c>
       <c r="E32" t="n">
-        <v>52.80882428576622</v>
+        <v>1337.996003615223</v>
       </c>
       <c r="F32" t="n">
-        <v>52.80882428576622</v>
+        <v>926.5880607055861</v>
       </c>
       <c r="G32" t="n">
-        <v>52.80882428576622</v>
+        <v>509.4330956216346</v>
       </c>
       <c r="H32" t="n">
-        <v>52.80882428576622</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="I32" t="n">
         <v>52.80882428576622</v>
@@ -6706,16 +6706,16 @@
         <v>566.3570391656497</v>
       </c>
       <c r="L32" t="n">
-        <v>1061.167423516202</v>
+        <v>1061.167423516201</v>
       </c>
       <c r="M32" t="n">
         <v>1626.95160971834</v>
       </c>
       <c r="N32" t="n">
-        <v>1783.785501922125</v>
+        <v>2186.373600570116</v>
       </c>
       <c r="O32" t="n">
-        <v>2265.903473180647</v>
+        <v>2597.227423114005</v>
       </c>
       <c r="P32" t="n">
         <v>2640.441214288311</v>
@@ -6724,28 +6724,28 @@
         <v>2640.441214288311</v>
       </c>
       <c r="R32" t="n">
-        <v>2615.896128325985</v>
+        <v>2640.441214288311</v>
       </c>
       <c r="S32" t="n">
-        <v>2451.025861390853</v>
+        <v>2490.78901459886</v>
       </c>
       <c r="T32" t="n">
-        <v>2234.083151593279</v>
+        <v>2490.78901459886</v>
       </c>
       <c r="U32" t="n">
-        <v>1980.216428786322</v>
+        <v>2490.78901459886</v>
       </c>
       <c r="V32" t="n">
-        <v>1648.364689874687</v>
+        <v>2490.78901459886</v>
       </c>
       <c r="W32" t="n">
-        <v>1294.293864621601</v>
+        <v>2490.78901459886</v>
       </c>
       <c r="X32" t="n">
-        <v>919.686188731531</v>
+        <v>2116.18133870879</v>
       </c>
       <c r="Y32" t="n">
-        <v>529.093186962606</v>
+        <v>1725.588336939865</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J33" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K33" t="n">
-        <v>79.82217335461941</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L33" t="n">
-        <v>543.1266519827402</v>
+        <v>816.6689292720232</v>
       </c>
       <c r="M33" t="n">
-        <v>1136.581319955988</v>
+        <v>1410.12359724527</v>
       </c>
       <c r="N33" t="n">
-        <v>1761.141699114441</v>
+        <v>1541.153067779601</v>
       </c>
       <c r="O33" t="n">
-        <v>2264.864409577045</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P33" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q33" t="n">
         <v>2640.441214288311</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>704.5864556914163</v>
+        <v>350.9548726941742</v>
       </c>
       <c r="C34" t="n">
-        <v>704.5864556914163</v>
+        <v>350.9548726941742</v>
       </c>
       <c r="D34" t="n">
-        <v>704.5864556914163</v>
+        <v>200.4441994471849</v>
       </c>
       <c r="E34" t="n">
-        <v>556.1272393548514</v>
+        <v>200.4441994471849</v>
       </c>
       <c r="F34" t="n">
-        <v>536.8769372700048</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="G34" t="n">
-        <v>368.1393961015531</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H34" t="n">
-        <v>212.4112780349469</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I34" t="n">
-        <v>82.59834607624562</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J34" t="n">
         <v>52.80882428576622</v>
@@ -6882,28 +6882,28 @@
         <v>914.4132742631509</v>
       </c>
       <c r="R34" t="n">
-        <v>914.4132742631509</v>
+        <v>777.3954668404533</v>
       </c>
       <c r="S34" t="n">
-        <v>704.5864556914163</v>
+        <v>567.5686482687187</v>
       </c>
       <c r="T34" t="n">
-        <v>704.5864556914163</v>
+        <v>567.5686482687187</v>
       </c>
       <c r="U34" t="n">
-        <v>704.5864556914163</v>
+        <v>567.5686482687187</v>
       </c>
       <c r="V34" t="n">
-        <v>704.5864556914163</v>
+        <v>567.5686482687187</v>
       </c>
       <c r="W34" t="n">
-        <v>704.5864556914163</v>
+        <v>567.5686482687187</v>
       </c>
       <c r="X34" t="n">
-        <v>704.5864556914163</v>
+        <v>567.5686482687187</v>
       </c>
       <c r="Y34" t="n">
-        <v>704.5864556914163</v>
+        <v>350.9548726941742</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>547.858916332997</v>
+        <v>1630.153838858578</v>
       </c>
       <c r="C35" t="n">
-        <v>177.1669004956811</v>
+        <v>1630.153838858578</v>
       </c>
       <c r="D35" t="n">
-        <v>177.1669004956811</v>
+        <v>1269.947038096358</v>
       </c>
       <c r="E35" t="n">
-        <v>177.1669004956811</v>
+        <v>1269.947038096358</v>
       </c>
       <c r="F35" t="n">
-        <v>52.80882428576622</v>
+        <v>858.5390951867203</v>
       </c>
       <c r="G35" t="n">
-        <v>52.80882428576622</v>
+        <v>509.4330956216346</v>
       </c>
       <c r="H35" t="n">
-        <v>52.80882428576622</v>
+        <v>187.2321456211013</v>
       </c>
       <c r="I35" t="n">
         <v>52.80882428576622</v>
       </c>
       <c r="J35" t="n">
-        <v>138.1321958894512</v>
+        <v>209.3963446040838</v>
       </c>
       <c r="K35" t="n">
-        <v>495.0928904510171</v>
+        <v>566.3570391656497</v>
       </c>
       <c r="L35" t="n">
-        <v>989.903274801569</v>
+        <v>631.1434370150577</v>
       </c>
       <c r="M35" t="n">
-        <v>1555.687461003708</v>
+        <v>1196.927623217196</v>
       </c>
       <c r="N35" t="n">
-        <v>2115.109451855483</v>
+        <v>1756.349614068972</v>
       </c>
       <c r="O35" t="n">
-        <v>2597.227423114005</v>
+        <v>2238.467585327494</v>
       </c>
       <c r="P35" t="n">
-        <v>2640.441214288311</v>
+        <v>2436.358370347215</v>
       </c>
       <c r="Q35" t="n">
         <v>2640.441214288311</v>
@@ -6964,25 +6964,25 @@
         <v>2640.441214288311</v>
       </c>
       <c r="S35" t="n">
-        <v>2640.441214288311</v>
+        <v>2475.570947353179</v>
       </c>
       <c r="T35" t="n">
-        <v>2640.441214288311</v>
+        <v>2258.628237555605</v>
       </c>
       <c r="U35" t="n">
-        <v>2386.574491481354</v>
+        <v>2004.761514748648</v>
       </c>
       <c r="V35" t="n">
-        <v>2054.722752569719</v>
+        <v>2004.761514748648</v>
       </c>
       <c r="W35" t="n">
-        <v>1700.651927316634</v>
+        <v>2004.761514748648</v>
       </c>
       <c r="X35" t="n">
-        <v>1326.044251426564</v>
+        <v>1630.153838858578</v>
       </c>
       <c r="Y35" t="n">
-        <v>935.4512496576384</v>
+        <v>1630.153838858578</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.4678039487183</v>
+        <v>966.4678039487185</v>
       </c>
       <c r="C36" t="n">
-        <v>793.7146888705354</v>
+        <v>793.7146888705356</v>
       </c>
       <c r="D36" t="n">
-        <v>646.1263822294793</v>
+        <v>646.1263822294795</v>
       </c>
       <c r="E36" t="n">
-        <v>488.516853232334</v>
+        <v>488.5168532323343</v>
       </c>
       <c r="F36" t="n">
-        <v>343.5610632489509</v>
+        <v>343.5610632489511</v>
       </c>
       <c r="G36" t="n">
-        <v>207.1752554716957</v>
+        <v>207.1752554716959</v>
       </c>
       <c r="H36" t="n">
         <v>105.3647029916147</v>
@@ -7016,25 +7016,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J36" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K36" t="n">
-        <v>79.82217335461941</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8481136478412</v>
+        <v>916.4645595624561</v>
       </c>
       <c r="M36" t="n">
-        <v>1124.302781621088</v>
+        <v>1410.12359724527</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.863160779542</v>
+        <v>1541.153067779601</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.585871242145</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P36" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q36" t="n">
         <v>2640.441214288311</v>
@@ -7052,7 +7052,7 @@
         <v>2032.531424582117</v>
       </c>
       <c r="V36" t="n">
-        <v>1798.280181107717</v>
+        <v>1798.280181107718</v>
       </c>
       <c r="W36" t="n">
         <v>1545.765689441051</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1778.836764310927</v>
+        <v>538.2085617582651</v>
       </c>
       <c r="C37" t="n">
-        <v>1778.836764310927</v>
+        <v>369.1817406156365</v>
       </c>
       <c r="D37" t="n">
-        <v>1778.836764310927</v>
+        <v>369.1817406156365</v>
       </c>
       <c r="E37" t="n">
-        <v>1778.836764310927</v>
+        <v>369.1817406156365</v>
       </c>
       <c r="F37" t="n">
-        <v>1778.836764310927</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="G37" t="n">
-        <v>1778.836764310927</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="H37" t="n">
-        <v>1778.836764310927</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I37" t="n">
-        <v>1778.836764310927</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="J37" t="n">
-        <v>1778.836764310927</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="K37" t="n">
-        <v>1860.760552087947</v>
+        <v>134.7326120627859</v>
       </c>
       <c r="L37" t="n">
-        <v>2021.398410206025</v>
+        <v>295.3704701808645</v>
       </c>
       <c r="M37" t="n">
-        <v>2201.361408124225</v>
+        <v>475.3334680990641</v>
       </c>
       <c r="N37" t="n">
-        <v>2382.186550083848</v>
+        <v>656.1586100586878</v>
       </c>
       <c r="O37" t="n">
-        <v>2533.871239525464</v>
+        <v>807.8432995003034</v>
       </c>
       <c r="P37" t="n">
-        <v>2640.441214288311</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="Q37" t="n">
-        <v>2640.441214288311</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="R37" t="n">
-        <v>2640.441214288311</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="S37" t="n">
-        <v>2640.441214288311</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="T37" t="n">
-        <v>2640.441214288311</v>
+        <v>914.4132742631509</v>
       </c>
       <c r="U37" t="n">
-        <v>2640.441214288311</v>
+        <v>793.699825462244</v>
       </c>
       <c r="V37" t="n">
-        <v>2640.441214288311</v>
+        <v>538.2085617582651</v>
       </c>
       <c r="W37" t="n">
-        <v>2410.122345412706</v>
+        <v>538.2085617582651</v>
       </c>
       <c r="X37" t="n">
-        <v>2181.697739420475</v>
+        <v>538.2085617582651</v>
       </c>
       <c r="Y37" t="n">
-        <v>1960.739482988385</v>
+        <v>538.2085617582651</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2455.882735119091</v>
+        <v>944.2312746938571</v>
       </c>
       <c r="C38" t="n">
-        <v>2085.190719281775</v>
+        <v>944.2312746938571</v>
       </c>
       <c r="D38" t="n">
-        <v>1724.983918519554</v>
+        <v>944.2312746938571</v>
       </c>
       <c r="E38" t="n">
-        <v>1337.996003615223</v>
+        <v>944.2312746938571</v>
       </c>
       <c r="F38" t="n">
-        <v>926.5880607055861</v>
+        <v>792.164739370251</v>
       </c>
       <c r="G38" t="n">
-        <v>509.4330956216346</v>
+        <v>375.0097742862995</v>
       </c>
       <c r="H38" t="n">
-        <v>187.2321456211013</v>
+        <v>52.80882428576622</v>
       </c>
       <c r="I38" t="n">
         <v>52.80882428576622</v>
@@ -7180,19 +7180,19 @@
         <v>409.7695188473321</v>
       </c>
       <c r="L38" t="n">
-        <v>658.5793248682104</v>
+        <v>904.5799031978838</v>
       </c>
       <c r="M38" t="n">
-        <v>1224.363511070349</v>
+        <v>1470.364089400023</v>
       </c>
       <c r="N38" t="n">
-        <v>1783.785501922125</v>
+        <v>2029.786080251798</v>
       </c>
       <c r="O38" t="n">
-        <v>2265.903473180647</v>
+        <v>2511.90405151032</v>
       </c>
       <c r="P38" t="n">
-        <v>2640.441214288311</v>
+        <v>2555.117842684626</v>
       </c>
       <c r="Q38" t="n">
         <v>2640.441214288311</v>
@@ -7201,25 +7201,25 @@
         <v>2640.441214288311</v>
       </c>
       <c r="S38" t="n">
-        <v>2640.441214288311</v>
+        <v>2475.570947353179</v>
       </c>
       <c r="T38" t="n">
-        <v>2455.882735119091</v>
+        <v>2258.628237555605</v>
       </c>
       <c r="U38" t="n">
-        <v>2455.882735119091</v>
+        <v>2004.761514748648</v>
       </c>
       <c r="V38" t="n">
-        <v>2455.882735119091</v>
+        <v>1672.909775837013</v>
       </c>
       <c r="W38" t="n">
-        <v>2455.882735119091</v>
+        <v>1318.838950583927</v>
       </c>
       <c r="X38" t="n">
-        <v>2455.882735119091</v>
+        <v>944.2312746938571</v>
       </c>
       <c r="Y38" t="n">
-        <v>2455.882735119091</v>
+        <v>944.2312746938571</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>52.80882428576622</v>
       </c>
       <c r="J39" t="n">
-        <v>52.80882428576622</v>
+        <v>153.8533238373313</v>
       </c>
       <c r="K39" t="n">
-        <v>79.82217335461941</v>
+        <v>453.1600809343354</v>
       </c>
       <c r="L39" t="n">
-        <v>530.8481136478412</v>
+        <v>916.4645595624561</v>
       </c>
       <c r="M39" t="n">
-        <v>1124.302781621088</v>
+        <v>1509.919227535703</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.863160779542</v>
+        <v>1640.948698070034</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.585871242145</v>
+        <v>2044.875778242205</v>
       </c>
       <c r="P39" t="n">
-        <v>2640.441214288311</v>
+        <v>2432.73112128837</v>
       </c>
       <c r="Q39" t="n">
         <v>2640.441214288311</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.80882428576622</v>
+        <v>522.6837370139579</v>
       </c>
       <c r="C40" t="n">
-        <v>52.80882428576622</v>
+        <v>517.6409569522013</v>
       </c>
       <c r="D40" t="n">
-        <v>52.80882428576622</v>
+        <v>517.6409569522013</v>
       </c>
       <c r="E40" t="n">
-        <v>52.80882428576622</v>
+        <v>369.1817406156365</v>
       </c>
       <c r="F40" t="n">
-        <v>52.80882428576622</v>
+        <v>221.5463654542178</v>
       </c>
       <c r="G40" t="n">
         <v>52.80882428576622</v>
@@ -7359,25 +7359,25 @@
         <v>914.4132742631509</v>
       </c>
       <c r="S40" t="n">
-        <v>914.4132742631509</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="T40" t="n">
-        <v>914.4132742631509</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="U40" t="n">
-        <v>825.7070948783562</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="V40" t="n">
-        <v>570.2158311743772</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="W40" t="n">
-        <v>281.2334302779978</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="X40" t="n">
-        <v>52.80882428576622</v>
+        <v>704.5864556914163</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.80882428576622</v>
+        <v>704.5864556914163</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.58376428525275</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="C41" t="n">
-        <v>17.58376428525275</v>
+        <v>657.170988438739</v>
       </c>
       <c r="D41" t="n">
-        <v>17.58376428525275</v>
+        <v>657.170988438739</v>
       </c>
       <c r="E41" t="n">
-        <v>17.58376428525275</v>
+        <v>435.1537626148406</v>
       </c>
       <c r="F41" t="n">
-        <v>17.58376428525275</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="G41" t="n">
         <v>17.58376428525275</v>
@@ -7417,46 +7417,46 @@
         <v>235.1828473152555</v>
       </c>
       <c r="L41" t="n">
-        <v>452.7819303452583</v>
+        <v>299.9692451646635</v>
       </c>
       <c r="M41" t="n">
-        <v>555.7469824631769</v>
+        <v>402.9342972825821</v>
       </c>
       <c r="N41" t="n">
-        <v>664.8765799403733</v>
+        <v>571.5430266022352</v>
       </c>
       <c r="O41" t="n">
-        <v>754.9226845707727</v>
+        <v>661.5891312326346</v>
       </c>
       <c r="P41" t="n">
-        <v>798.1364757450785</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="Q41" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="R41" t="n">
-        <v>854.6431283003114</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="S41" t="n">
-        <v>854.6431283003114</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="T41" t="n">
-        <v>683.6354417569479</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="U41" t="n">
-        <v>683.6354417569479</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="V41" t="n">
-        <v>461.6182159330495</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="W41" t="n">
-        <v>239.6009901091511</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="X41" t="n">
-        <v>17.58376428525275</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.58376428525275</v>
+        <v>879.1882142626373</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.58376428525275</v>
+        <v>451.4425526623894</v>
       </c>
       <c r="C42" t="n">
-        <v>17.58376428525275</v>
+        <v>451.4425526623894</v>
       </c>
       <c r="D42" t="n">
-        <v>17.58376428525275</v>
+        <v>451.4425526623894</v>
       </c>
       <c r="E42" t="n">
-        <v>17.58376428525275</v>
+        <v>308.3360032484374</v>
       </c>
       <c r="F42" t="n">
-        <v>17.58376428525275</v>
+        <v>308.3360032484374</v>
       </c>
       <c r="G42" t="n">
-        <v>17.58376428525275</v>
+        <v>171.9501954711822</v>
       </c>
       <c r="H42" t="n">
-        <v>17.58376428525275</v>
+        <v>70.13964299110123</v>
       </c>
       <c r="I42" t="n">
         <v>17.58376428525275</v>
       </c>
       <c r="J42" t="n">
-        <v>118.6282638368178</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="K42" t="n">
-        <v>145.641612905671</v>
+        <v>44.59711335410591</v>
       </c>
       <c r="L42" t="n">
-        <v>227.1288720093502</v>
+        <v>166.4248887181429</v>
       </c>
       <c r="M42" t="n">
         <v>384.0239717481456</v>
       </c>
       <c r="N42" t="n">
-        <v>601.6230547781485</v>
+        <v>601.6230547781483</v>
       </c>
       <c r="O42" t="n">
-        <v>819.2221378081513</v>
+        <v>819.222137808151</v>
       </c>
       <c r="P42" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="Q42" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="R42" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="S42" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="T42" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="U42" t="n">
-        <v>657.1709884387392</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="V42" t="n">
-        <v>435.1537626148408</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="W42" t="n">
-        <v>223.3122000616023</v>
+        <v>657.170988438739</v>
       </c>
       <c r="X42" t="n">
-        <v>223.3122000616023</v>
+        <v>657.170988438739</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.58376428525275</v>
+        <v>451.4425526623894</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.6042898821813</v>
+        <v>435.1537626148406</v>
       </c>
       <c r="C43" t="n">
-        <v>732.6042898821813</v>
+        <v>435.1537626148406</v>
       </c>
       <c r="D43" t="n">
-        <v>732.6042898821813</v>
+        <v>284.6430893678514</v>
       </c>
       <c r="E43" t="n">
-        <v>649.28725243091</v>
+        <v>136.1838730312865</v>
       </c>
       <c r="F43" t="n">
-        <v>501.6518772694913</v>
+        <v>136.1838730312865</v>
       </c>
       <c r="G43" t="n">
-        <v>332.9143361010397</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H43" t="n">
-        <v>177.1862180344335</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I43" t="n">
-        <v>47.37328607573215</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="J43" t="n">
         <v>17.58376428525275</v>
       </c>
       <c r="K43" t="n">
-        <v>99.50755206227244</v>
+        <v>99.5075520622724</v>
       </c>
       <c r="L43" t="n">
         <v>260.145410180351</v>
       </c>
       <c r="M43" t="n">
-        <v>440.1084080985506</v>
+        <v>440.1084080985505</v>
       </c>
       <c r="N43" t="n">
-        <v>620.9335500581744</v>
+        <v>620.9335500581742</v>
       </c>
       <c r="O43" t="n">
-        <v>772.61823949979</v>
+        <v>772.6182394997898</v>
       </c>
       <c r="P43" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="Q43" t="n">
-        <v>869.6220973048789</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="R43" t="n">
-        <v>732.6042898821813</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="S43" t="n">
-        <v>732.6042898821813</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="T43" t="n">
-        <v>732.6042898821813</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="U43" t="n">
-        <v>732.6042898821813</v>
+        <v>657.170988438739</v>
       </c>
       <c r="V43" t="n">
-        <v>732.6042898821813</v>
+        <v>657.170988438739</v>
       </c>
       <c r="W43" t="n">
-        <v>732.6042898821813</v>
+        <v>435.1537626148406</v>
       </c>
       <c r="X43" t="n">
-        <v>732.6042898821813</v>
+        <v>435.1537626148406</v>
       </c>
       <c r="Y43" t="n">
-        <v>732.6042898821813</v>
+        <v>435.1537626148406</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>714.317947327505</v>
+        <v>657.170988438739</v>
       </c>
       <c r="C44" t="n">
-        <v>714.317947327505</v>
+        <v>657.170988438739</v>
       </c>
       <c r="D44" t="n">
-        <v>714.317947327505</v>
+        <v>657.170988438739</v>
       </c>
       <c r="E44" t="n">
-        <v>714.317947327505</v>
+        <v>461.6182159330494</v>
       </c>
       <c r="F44" t="n">
-        <v>492.3007215036066</v>
+        <v>239.6009901091511</v>
       </c>
       <c r="G44" t="n">
-        <v>270.2834956797083</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H44" t="n">
-        <v>48.2662698558099</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I44" t="n">
         <v>17.58376428525275</v>
       </c>
       <c r="J44" t="n">
-        <v>17.58376428525275</v>
+        <v>174.1712846035703</v>
       </c>
       <c r="K44" t="n">
-        <v>90.5791352166156</v>
+        <v>197.3918623818649</v>
       </c>
       <c r="L44" t="n">
-        <v>155.3655330660237</v>
+        <v>262.1782602312729</v>
       </c>
       <c r="M44" t="n">
-        <v>258.3305851839423</v>
+        <v>365.1433123491914</v>
       </c>
       <c r="N44" t="n">
-        <v>367.4601826611387</v>
+        <v>474.2729098263878</v>
       </c>
       <c r="O44" t="n">
-        <v>457.5062872915381</v>
+        <v>631.8915791472349</v>
       </c>
       <c r="P44" t="n">
-        <v>675.1053703215409</v>
+        <v>675.1053703215407</v>
       </c>
       <c r="Q44" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="R44" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="S44" t="n">
-        <v>714.317947327505</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="T44" t="n">
-        <v>714.317947327505</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="U44" t="n">
-        <v>714.317947327505</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="V44" t="n">
-        <v>714.317947327505</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="W44" t="n">
-        <v>714.317947327505</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="X44" t="n">
-        <v>714.317947327505</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="Y44" t="n">
-        <v>714.317947327505</v>
+        <v>879.1882142626373</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.58376428525275</v>
+        <v>477.1480311093837</v>
       </c>
       <c r="C45" t="n">
-        <v>17.58376428525275</v>
+        <v>477.1480311093837</v>
       </c>
       <c r="D45" t="n">
-        <v>17.58376428525275</v>
+        <v>329.5597244683275</v>
       </c>
       <c r="E45" t="n">
-        <v>17.58376428525275</v>
+        <v>171.9501954711822</v>
       </c>
       <c r="F45" t="n">
-        <v>17.58376428525275</v>
+        <v>171.9501954711822</v>
       </c>
       <c r="G45" t="n">
-        <v>17.58376428525275</v>
+        <v>171.9501954711822</v>
       </c>
       <c r="H45" t="n">
-        <v>17.58376428525275</v>
+        <v>70.13964299110123</v>
       </c>
       <c r="I45" t="n">
         <v>17.58376428525275</v>
@@ -7730,49 +7730,49 @@
         <v>17.58376428525275</v>
       </c>
       <c r="K45" t="n">
-        <v>235.1828473152555</v>
+        <v>44.59711335410591</v>
       </c>
       <c r="L45" t="n">
-        <v>316.6701064189347</v>
+        <v>262.1961963841086</v>
       </c>
       <c r="M45" t="n">
-        <v>430.634840755182</v>
+        <v>479.7952794141114</v>
       </c>
       <c r="N45" t="n">
-        <v>563.3870646973515</v>
+        <v>697.3943624441141</v>
       </c>
       <c r="O45" t="n">
-        <v>661.5891312326347</v>
+        <v>819.222137808151</v>
       </c>
       <c r="P45" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="Q45" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="R45" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="S45" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="T45" t="n">
-        <v>683.6354417569479</v>
+        <v>879.1882142626373</v>
       </c>
       <c r="U45" t="n">
-        <v>461.6182159330495</v>
+        <v>866.2078080548424</v>
       </c>
       <c r="V45" t="n">
-        <v>239.6009901091511</v>
+        <v>866.2078080548424</v>
       </c>
       <c r="W45" t="n">
-        <v>17.58376428525275</v>
+        <v>644.1905822309441</v>
       </c>
       <c r="X45" t="n">
-        <v>17.58376428525275</v>
+        <v>644.1905822309441</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.58376428525275</v>
+        <v>644.1905822309441</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>619.4977306404306</v>
+        <v>186.6105854278814</v>
       </c>
       <c r="C46" t="n">
-        <v>619.4977306404306</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="D46" t="n">
-        <v>619.4977306404306</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="E46" t="n">
-        <v>619.4977306404306</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="F46" t="n">
-        <v>471.8623554790119</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="G46" t="n">
-        <v>303.1248143105603</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="H46" t="n">
-        <v>147.3966962439541</v>
+        <v>17.58376428525275</v>
       </c>
       <c r="I46" t="n">
         <v>17.58376428525275</v>
@@ -7809,7 +7809,7 @@
         <v>17.58376428525275</v>
       </c>
       <c r="K46" t="n">
-        <v>99.50755206227257</v>
+        <v>99.50755206227242</v>
       </c>
       <c r="L46" t="n">
         <v>260.145410180351</v>
@@ -7821,37 +7821,37 @@
         <v>620.9335500581743</v>
       </c>
       <c r="O46" t="n">
-        <v>772.61823949979</v>
+        <v>772.6182394997899</v>
       </c>
       <c r="P46" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="Q46" t="n">
-        <v>879.1882142626375</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="R46" t="n">
-        <v>841.514956464329</v>
+        <v>879.1882142626374</v>
       </c>
       <c r="S46" t="n">
-        <v>841.514956464329</v>
+        <v>669.3613956909028</v>
       </c>
       <c r="T46" t="n">
-        <v>841.514956464329</v>
+        <v>669.3613956909028</v>
       </c>
       <c r="U46" t="n">
-        <v>841.514956464329</v>
+        <v>669.3613956909028</v>
       </c>
       <c r="V46" t="n">
-        <v>619.4977306404306</v>
+        <v>447.3441698670044</v>
       </c>
       <c r="W46" t="n">
-        <v>619.4977306404306</v>
+        <v>225.3269440431061</v>
       </c>
       <c r="X46" t="n">
-        <v>619.4977306404306</v>
+        <v>225.3269440431061</v>
       </c>
       <c r="Y46" t="n">
-        <v>619.4977306404306</v>
+        <v>225.3269440431061</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>68.25511584893708</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>98.25264320792644</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>176.1467594501989</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.66330347711235</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8768,13 +8768,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>29.06952569183822</v>
+        <v>29.06952569183824</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>192.5108423849996</v>
       </c>
       <c r="L12" t="n">
-        <v>137.4866908346703</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>6.181390927515608</v>
+        <v>159.2252591671884</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>10.41235945528103</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8932,7 +8932,7 @@
         <v>196.3419244966749</v>
       </c>
       <c r="L14" t="n">
-        <v>78.0574781614506</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>78.05747816145058</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.66330347711235</v>
+        <v>14.66330347711238</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,13 +9005,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>52.54824898176938</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>192.5108423849996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>137.4866908346703</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>41.60293069999895</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>8.67220449786798</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.8764911783178</v>
+        <v>17.69126733621172</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
@@ -9178,13 +9178,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O17" t="n">
-        <v>396.0321885132552</v>
+        <v>147.5467558570187</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.66330347711235</v>
+        <v>14.66330347711238</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9242,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2713951409521</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>230.3976124255005</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>165.2380231932309</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9409,19 +9409,19 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
-        <v>467.4940748325458</v>
+        <v>309.5359443128394</v>
       </c>
       <c r="N20" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P20" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.66330347711235</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9479,28 +9479,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>471.9307023253544</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.6168120477987</v>
+        <v>308.8131450877645</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9640,16 +9640,16 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K23" t="n">
-        <v>179.1530985543054</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L23" t="n">
         <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
-        <v>467.4940748325458</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>309.5359443128394</v>
       </c>
       <c r="O23" t="n">
         <v>396.0321885132552</v>
@@ -9716,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>30.33100979399197</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>327.3636769712183</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>17.69126733621169</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K26" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L26" t="n">
-        <v>375.7701321802994</v>
+        <v>156.2393877226417</v>
       </c>
       <c r="M26" t="n">
         <v>467.4940748325458</v>
@@ -9889,10 +9889,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>220.8075902863009</v>
@@ -9953,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2713951409521</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>331.2012793855346</v>
+        <v>230.3976124255018</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>17.69126733621169</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K29" t="n">
-        <v>88.62579641777545</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L29" t="n">
         <v>434.3676631324684</v>
@@ -10123,16 +10123,16 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N29" t="n">
-        <v>454.8408013884635</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
-        <v>334.6706564983419</v>
+        <v>176.7125259786364</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.66330347711235</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,19 +10190,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>174.2401795330485</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2713951409521</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10360,16 +10360,16 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N32" t="n">
-        <v>48.18615628948265</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O32" t="n">
-        <v>396.0321885132552</v>
+        <v>324.0481999126164</v>
       </c>
       <c r="P32" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.66330347711235</v>
+        <v>14.66330347711238</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10427,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>385.6739591155975</v>
+        <v>284.8702921555644</v>
       </c>
       <c r="M33" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>318.7987154108891</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>103.8764911783178</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L35" t="n">
-        <v>434.3676631324684</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>467.4940748325458</v>
@@ -10603,10 +10603,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>156.2393877226412</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.66330347711235</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10664,19 +10664,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2713951409521</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>383.5295993399666</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>17.69126733621169</v>
+        <v>17.69126733621172</v>
       </c>
       <c r="K38" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L38" t="n">
-        <v>185.8822304762325</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
         <v>467.4940748325458</v>
@@ -10840,10 +10840,10 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.66330347711235</v>
+        <v>100.8485273192187</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10901,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>29.06952569183822</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>373.2713951409521</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>308.8131450877654</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.672204497867966</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>17.69126733621169</v>
+        <v>17.69126733621172</v>
       </c>
       <c r="K41" t="n">
         <v>196.3419244966749</v>
       </c>
       <c r="L41" t="n">
-        <v>154.3562476571664</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>60.07993115399671</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>176.1467594501989</v>
       </c>
       <c r="Q41" t="n">
-        <v>96.53374642414163</v>
+        <v>14.66330347711238</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,28 +11138,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>29.06952569183824</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>40.74799622258367</v>
       </c>
       <c r="M42" t="n">
-        <v>43.36400545711936</v>
+        <v>104.6811602967227</v>
       </c>
       <c r="N42" t="n">
         <v>87.4440530259314</v>
       </c>
       <c r="O42" t="n">
-        <v>120.6030469643632</v>
+        <v>120.6030469643633</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.672204497867966</v>
+        <v>8.67220449786798</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>17.69126733621169</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>50.27756884148303</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>68.25511584893701</v>
       </c>
       <c r="P44" t="n">
-        <v>176.1467594501989</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11375,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>29.06952569183822</v>
+        <v>29.06952569183824</v>
       </c>
       <c r="K45" t="n">
-        <v>192.5108423849996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>137.4866908346703</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>104.6811602967227</v>
       </c>
       <c r="N45" t="n">
-        <v>1.740154957413012</v>
+        <v>87.44405302593137</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>23.86435235227658</v>
       </c>
       <c r="P45" t="n">
-        <v>159.2252591671885</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.672204497867966</v>
+        <v>8.67220449786798</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23260,7 +23260,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>147.1880421132833</v>
       </c>
       <c r="D11" t="n">
         <v>356.6047327545984</v>
@@ -23269,16 +23269,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>187.4968099148815</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>193.1863618674526</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H11" t="n">
-        <v>99.18188693486854</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>127.0030427098329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3280555788869</v>
+        <v>31.53100201322755</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>375.5872554730261</v>
       </c>
     </row>
     <row r="12">
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>32.52899854748281</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,16 +23393,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>4.794251099860276</v>
+        <v>224.5913046655197</v>
       </c>
       <c r="V12" t="n">
-        <v>12.11167747399574</v>
+        <v>147.8893973323121</v>
       </c>
       <c r="W12" t="n">
-        <v>213.8344355473206</v>
+        <v>30.19229318434068</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -23421,25 +23421,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>48.35706768991474</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J13" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>9.470455788181056</v>
       </c>
       <c r="R13" t="n">
         <v>135.6476293484707</v>
       </c>
       <c r="S13" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>224.7458397054146</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0064836725184</v>
+        <v>80.34073571224357</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>66.29552332175618</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>6.343306366649898</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>163.9193564257357</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>173.3878508983098</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>163.3209821896281</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>187.4968099148815</v>
       </c>
       <c r="G14" t="n">
         <v>412.983415433112</v>
       </c>
       <c r="H14" t="n">
-        <v>318.9789405005279</v>
+        <v>99.18188693486857</v>
       </c>
       <c r="I14" t="n">
         <v>133.0790881219817</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.29963510270288</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S14" t="n">
         <v>163.2215642657812</v>
       </c>
       <c r="T14" t="n">
-        <v>214.7732826995982</v>
+        <v>21.17603791896542</v>
       </c>
       <c r="U14" t="n">
         <v>251.3280555788869</v>
@@ -23560,10 +23560,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>151.06454556551</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>166.8900181855764</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -23582,7 +23582,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.7924469552802</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>52.03031991878998</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>32.52899854748281</v>
       </c>
       <c r="S15" t="n">
-        <v>137.0856681640252</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T15" t="n">
-        <v>194.3467494319119</v>
+        <v>5.055704913337308</v>
       </c>
       <c r="U15" t="n">
-        <v>4.794251099860276</v>
+        <v>224.5913046655197</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>30.19229318434068</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>135.6476293484707</v>
       </c>
       <c r="S16" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>224.7458397054146</v>
+        <v>4.948786139755214</v>
       </c>
       <c r="U16" t="n">
-        <v>278.2015850247675</v>
+        <v>286.0064836725184</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>66.29552332175615</v>
+        <v>79.37844922924961</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>201.0035156138669</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>29.34387912038954</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.983415433112</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>24.29963510270288</v>
+        <v>24.29963510270269</v>
       </c>
       <c r="S17" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -23895,25 +23895,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>88.30305920272862</v>
       </c>
       <c r="G19" t="n">
-        <v>132.791516840475</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S19" t="n">
         <v>207.7285503860173</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>224.7458397054146</v>
       </c>
       <c r="U19" t="n">
         <v>286.0064836725184</v>
       </c>
       <c r="V19" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>54.6738044827552</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>318.9789405005279</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>385.1473975054515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24150,7 +24150,7 @@
         <v>128.5148026391143</v>
       </c>
       <c r="J22" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R22" t="n">
-        <v>1.140097634810047</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>91.63282821864863</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>31.91998222775231</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>283.8788508015675</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -24387,7 +24387,7 @@
         <v>128.5148026391143</v>
       </c>
       <c r="J25" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>224.7458397054146</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0064836725184</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>58.07689670056598</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>130.8434630619241</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>276.1786630573482</v>
       </c>
       <c r="H26" t="n">
-        <v>186.993668935821</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U26" t="n">
         <v>251.3280555788869</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24615,7 +24615,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>154.1708368859401</v>
@@ -24624,7 +24624,7 @@
         <v>128.5148026391143</v>
       </c>
       <c r="J28" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>224.7458397054146</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>252.6858281377694</v>
       </c>
       <c r="V28" t="n">
-        <v>118.4288193532785</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.2529195638334</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>72.09482646930633</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>167.0501657567671</v>
@@ -24861,7 +24861,7 @@
         <v>128.5148026391143</v>
       </c>
       <c r="J31" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>207.7285503860173</v>
       </c>
       <c r="T31" t="n">
-        <v>224.7458397054146</v>
+        <v>32.90984434715077</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0064836725184</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24903,10 +24903,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.3197249095667</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>252.0683093834697</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.983415433112</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>318.9789405005279</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>15.0658865732245</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3280555788869</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,25 +25080,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>127.1012223458063</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R34" t="n">
-        <v>135.6476293484707</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>4.301036048969195</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>284.1793680327251</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.983415433112</v>
+        <v>67.36847586367719</v>
       </c>
       <c r="H35" t="n">
-        <v>318.9789405005279</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>133.0790881219817</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>24.29963510270288</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S35" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.7732826995982</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -25323,10 +25323,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>154.1708368859401</v>
@@ -25335,7 +25335,7 @@
         <v>128.5148026391143</v>
       </c>
       <c r="J37" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>224.7458397054146</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0064836725184</v>
+        <v>166.5001693596205</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>58.07689670056664</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25393,16 +25393,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>256.7479935101708</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>24.29963510270288</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S38" t="n">
-        <v>163.2215642657812</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>32.06038832206997</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3280555788869</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>162.3442006700634</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0501657567671</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>154.1708368859401</v>
@@ -25572,7 +25572,7 @@
         <v>128.5148026391143</v>
       </c>
       <c r="J40" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>135.6476293484707</v>
       </c>
       <c r="S40" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>224.7458397054146</v>
       </c>
       <c r="U40" t="n">
-        <v>198.1873660815716</v>
+        <v>286.0064836725184</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25630,19 +25630,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>147.1880421132833</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>163.3209821896281</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>213.6966186999082</v>
       </c>
       <c r="G41" t="n">
-        <v>412.983415433112</v>
+        <v>193.1863618674527</v>
       </c>
       <c r="H41" t="n">
         <v>318.9789405005279</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S41" t="n">
         <v>163.2215642657812</v>
       </c>
       <c r="T41" t="n">
-        <v>45.47567302166826</v>
+        <v>214.7732826995982</v>
       </c>
       <c r="U41" t="n">
         <v>251.3280555788869</v>
       </c>
       <c r="V41" t="n">
-        <v>108.73616795686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>130.7330634348952</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>151.06454556551</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25715,19 +25715,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>14.35794978736135</v>
       </c>
       <c r="F42" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.0219496994826</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>100.7924469552802</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>52.03031991878998</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,19 +25757,19 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S42" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T42" t="n">
         <v>194.3467494319119</v>
       </c>
       <c r="U42" t="n">
-        <v>4.794251099860276</v>
+        <v>224.5913046655197</v>
       </c>
       <c r="V42" t="n">
-        <v>12.11167747399574</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>40.26619982229388</v>
+        <v>30.19229318434071</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -25791,25 +25791,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>64.4907570964406</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>49.63605809819367</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>9.470455788181056</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S43" t="n">
         <v>207.7285503860173</v>
@@ -25842,13 +25842,13 @@
         <v>224.7458397054146</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0064836725184</v>
+        <v>66.20943010685903</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>66.29552332175621</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>163.9193564257357</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25873,19 +25873,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>189.5207909746548</v>
       </c>
       <c r="F44" t="n">
         <v>187.4968099148815</v>
       </c>
       <c r="G44" t="n">
-        <v>193.1863618674526</v>
+        <v>193.1863618674527</v>
       </c>
       <c r="H44" t="n">
-        <v>99.18188693486854</v>
+        <v>318.9789405005279</v>
       </c>
       <c r="I44" t="n">
-        <v>102.7034076071302</v>
+        <v>133.0790881219817</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>24.29963510270288</v>
+        <v>24.29963510270289</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>163.2215642657812</v>
       </c>
       <c r="T44" t="n">
         <v>214.7732826995982</v>
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
@@ -25961,10 +25961,10 @@
         <v>135.0219496994826</v>
       </c>
       <c r="H45" t="n">
-        <v>100.7924469552802</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>52.03031991878998</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,19 +25994,19 @@
         <v>32.52899854748281</v>
       </c>
       <c r="S45" t="n">
-        <v>150.363639164218</v>
+        <v>150.3636391642181</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7495046512791816</v>
+        <v>194.3467494319119</v>
       </c>
       <c r="U45" t="n">
-        <v>4.794251099860276</v>
+        <v>211.7407025198027</v>
       </c>
       <c r="V45" t="n">
-        <v>12.11167747399574</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>30.19229318434066</v>
+        <v>30.19229318434071</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>141.7544964616113</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26034,19 +26034,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0501657567671</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>154.1708368859401</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>128.5148026391143</v>
       </c>
       <c r="J46" t="n">
-        <v>29.4916265725746</v>
+        <v>29.49162657257461</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>9.470455788181056</v>
       </c>
       <c r="R46" t="n">
-        <v>98.35110412814521</v>
+        <v>135.6476293484707</v>
       </c>
       <c r="S46" t="n">
-        <v>207.7285503860173</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>224.7458397054146</v>
@@ -26082,10 +26082,10 @@
         <v>286.0064836725184</v>
       </c>
       <c r="V46" t="n">
-        <v>33.13929750127977</v>
+        <v>33.13929750127983</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>66.29552332175621</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>406196.895887478</v>
+        <v>406196.8958874779</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>689006.5825779131</v>
+        <v>689006.5825779128</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>689006.5825779131</v>
+        <v>689006.5825779128</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>689006.582577913</v>
+        <v>689006.5825779128</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>689006.582577913</v>
+        <v>689006.5825779131</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>689006.582577913</v>
+        <v>689006.5825779131</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406196.8958874779</v>
+        <v>406196.895887478</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>588813.3738729118</v>
       </c>
       <c r="C2" t="n">
-        <v>588813.373872912</v>
+        <v>588813.3738729119</v>
       </c>
       <c r="D2" t="n">
-        <v>588813.3738729119</v>
+        <v>588813.3738729118</v>
       </c>
       <c r="E2" t="n">
         <v>267342.0350452914</v>
       </c>
       <c r="F2" t="n">
-        <v>267342.0350452914</v>
+        <v>267342.0350452913</v>
       </c>
       <c r="G2" t="n">
-        <v>418482.5346275644</v>
+        <v>418482.5346275645</v>
       </c>
       <c r="H2" t="n">
         <v>418482.5346275645</v>
@@ -26340,19 +26340,19 @@
         <v>418482.5346275645</v>
       </c>
       <c r="K2" t="n">
+        <v>418482.5346275644</v>
+      </c>
+      <c r="L2" t="n">
+        <v>418482.5346275644</v>
+      </c>
+      <c r="M2" t="n">
         <v>418482.5346275645</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>418482.5346275645</v>
       </c>
-      <c r="M2" t="n">
-        <v>418482.5346275644</v>
-      </c>
-      <c r="N2" t="n">
-        <v>418482.5346275646</v>
-      </c>
       <c r="O2" t="n">
-        <v>267342.0350452912</v>
+        <v>267342.0350452913</v>
       </c>
       <c r="P2" t="n">
         <v>267342.0350452913</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54774.30493677659</v>
+        <v>54774.30493677658</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>411400.6963116435</v>
       </c>
       <c r="E4" t="n">
-        <v>28421.16782664278</v>
+        <v>28421.16782664279</v>
       </c>
       <c r="F4" t="n">
         <v>28421.16782664279</v>
       </c>
       <c r="G4" t="n">
+        <v>97868.51220545312</v>
+      </c>
+      <c r="H4" t="n">
+        <v>97868.51220545307</v>
+      </c>
+      <c r="I4" t="n">
         <v>97868.51220545309</v>
       </c>
-      <c r="H4" t="n">
-        <v>97868.51220545309</v>
-      </c>
-      <c r="I4" t="n">
-        <v>97868.51220545311</v>
-      </c>
       <c r="J4" t="n">
-        <v>97868.51220545311</v>
+        <v>97868.51220545312</v>
       </c>
       <c r="K4" t="n">
         <v>97868.51220545309</v>
@@ -26453,13 +26453,13 @@
         <v>97868.51220545309</v>
       </c>
       <c r="N4" t="n">
-        <v>97868.51220545309</v>
+        <v>97868.51220545311</v>
       </c>
       <c r="O4" t="n">
         <v>28421.16782664279</v>
       </c>
       <c r="P4" t="n">
-        <v>28421.16782664279</v>
+        <v>28421.16782664278</v>
       </c>
     </row>
     <row r="5">
@@ -26484,16 +26484,16 @@
         <v>23511.52391050827</v>
       </c>
       <c r="G5" t="n">
-        <v>50282.56951089851</v>
+        <v>50282.56951089849</v>
       </c>
       <c r="H5" t="n">
-        <v>50282.56951089851</v>
+        <v>50282.56951089849</v>
       </c>
       <c r="I5" t="n">
-        <v>50282.56951089851</v>
+        <v>50282.56951089849</v>
       </c>
       <c r="J5" t="n">
-        <v>50282.56951089851</v>
+        <v>50282.56951089852</v>
       </c>
       <c r="K5" t="n">
         <v>50282.56951089851</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143785.0775612684</v>
+        <v>143741.0017897884</v>
       </c>
       <c r="C6" t="n">
-        <v>143785.0775612686</v>
+        <v>143741.0017897885</v>
       </c>
       <c r="D6" t="n">
-        <v>143785.0775612685</v>
+        <v>143741.0017897884</v>
       </c>
       <c r="E6" t="n">
-        <v>-224199.9562571092</v>
+        <v>-235329.2506088518</v>
       </c>
       <c r="F6" t="n">
-        <v>215409.3433081403</v>
+        <v>204280.0489563976</v>
       </c>
       <c r="G6" t="n">
-        <v>149648.1957832036</v>
+        <v>143730.642796367</v>
       </c>
       <c r="H6" t="n">
-        <v>270331.452911213</v>
+        <v>264413.8999243762</v>
       </c>
       <c r="I6" t="n">
-        <v>270331.4529112128</v>
+        <v>264413.899924376</v>
       </c>
       <c r="J6" t="n">
-        <v>270331.4529112129</v>
+        <v>264413.8999243762</v>
       </c>
       <c r="K6" t="n">
-        <v>270331.452911213</v>
+        <v>264413.8999243762</v>
       </c>
       <c r="L6" t="n">
-        <v>270331.452911213</v>
+        <v>264413.899924376</v>
       </c>
       <c r="M6" t="n">
-        <v>215557.1479744362</v>
+        <v>209639.5949875996</v>
       </c>
       <c r="N6" t="n">
-        <v>270331.452911213</v>
+        <v>264413.8999243762</v>
       </c>
       <c r="O6" t="n">
-        <v>215409.3433081402</v>
+        <v>204280.0489563976</v>
       </c>
       <c r="P6" t="n">
-        <v>215409.3433081402</v>
+        <v>204280.0489563976</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.441596514826653e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.441596514826653e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="F3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="G3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="H3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="I3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="J3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="K3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="L3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="M3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="N3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="O3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="P3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
     </row>
     <row r="4">
@@ -26804,16 +26804,16 @@
         <v>219.7970535656594</v>
       </c>
       <c r="G4" t="n">
-        <v>660.1103035720778</v>
+        <v>660.1103035720776</v>
       </c>
       <c r="H4" t="n">
-        <v>660.1103035720778</v>
+        <v>660.1103035720776</v>
       </c>
       <c r="I4" t="n">
-        <v>660.1103035720778</v>
+        <v>660.1103035720776</v>
       </c>
       <c r="J4" t="n">
-        <v>660.1103035720778</v>
+        <v>660.1103035720779</v>
       </c>
       <c r="K4" t="n">
         <v>660.1103035720778</v>
@@ -26828,10 +26828,10 @@
         <v>660.1103035720778</v>
       </c>
       <c r="O4" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="P4" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.441596514826653e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>465.4983052163386</v>
+        <v>465.4983052163385</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>440.3132500064184</v>
+        <v>440.3132500064183</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.441596514826653e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>440.3132500064184</v>
+        <v>440.3132500064183</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>2.088489054033687e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
     </row>
     <row r="19">
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H11" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I11" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J11" t="n">
         <v>158.8284895773074</v>
@@ -31767,13 +31767,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L11" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M11" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N11" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O11" t="n">
         <v>315.3014173789723</v>
@@ -31788,13 +31788,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S11" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T11" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H12" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I12" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J12" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K12" t="n">
         <v>161.6816141806598</v>
@@ -31864,16 +31864,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R12" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S12" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T12" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H13" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I13" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J13" t="n">
         <v>59.34721835520433</v>
@@ -31934,7 +31934,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O13" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P13" t="n">
         <v>101.5244172557076</v>
@@ -31946,13 +31946,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S13" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T13" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H14" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I14" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J14" t="n">
         <v>158.8284895773074</v>
@@ -32004,13 +32004,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L14" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M14" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N14" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O14" t="n">
         <v>315.3014173789723</v>
@@ -32025,13 +32025,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S14" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T14" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H15" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I15" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J15" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K15" t="n">
         <v>161.6816141806598</v>
@@ -32101,16 +32101,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R15" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S15" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T15" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H16" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I16" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J16" t="n">
         <v>59.34721835520433</v>
@@ -32171,7 +32171,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O16" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P16" t="n">
         <v>101.5244172557076</v>
@@ -32183,13 +32183,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S16" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T16" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H17" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I17" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J17" t="n">
         <v>158.8284895773074</v>
@@ -32241,13 +32241,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L17" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M17" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N17" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O17" t="n">
         <v>315.3014173789723</v>
@@ -32262,13 +32262,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S17" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T17" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H18" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I18" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J18" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K18" t="n">
         <v>161.6816141806598</v>
@@ -32338,16 +32338,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R18" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S18" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T18" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H19" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I19" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J19" t="n">
         <v>59.34721835520433</v>
@@ -32408,7 +32408,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O19" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P19" t="n">
         <v>101.5244172557076</v>
@@ -32420,13 +32420,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S19" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T19" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H20" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I20" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J20" t="n">
         <v>158.8284895773074</v>
@@ -32478,13 +32478,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L20" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M20" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N20" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O20" t="n">
         <v>315.3014173789723</v>
@@ -32499,13 +32499,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S20" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T20" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H21" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I21" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J21" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K21" t="n">
         <v>161.6816141806598</v>
@@ -32575,16 +32575,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R21" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S21" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T21" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H22" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I22" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J22" t="n">
         <v>59.34721835520433</v>
@@ -32645,7 +32645,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O22" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P22" t="n">
         <v>101.5244172557076</v>
@@ -32657,13 +32657,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S22" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T22" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H23" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I23" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J23" t="n">
         <v>158.8284895773074</v>
@@ -32715,13 +32715,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L23" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M23" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N23" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O23" t="n">
         <v>315.3014173789723</v>
@@ -32736,13 +32736,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S23" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T23" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H24" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I24" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J24" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K24" t="n">
         <v>161.6816141806598</v>
@@ -32812,16 +32812,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R24" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S24" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T24" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H25" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I25" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J25" t="n">
         <v>59.34721835520433</v>
@@ -32882,7 +32882,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O25" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P25" t="n">
         <v>101.5244172557076</v>
@@ -32894,13 +32894,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S25" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T25" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H26" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I26" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J26" t="n">
         <v>158.8284895773074</v>
@@ -32952,13 +32952,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L26" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M26" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N26" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O26" t="n">
         <v>315.3014173789723</v>
@@ -32973,13 +32973,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S26" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T26" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H27" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I27" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J27" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K27" t="n">
         <v>161.6816141806598</v>
@@ -33049,16 +33049,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R27" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S27" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T27" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H28" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I28" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J28" t="n">
         <v>59.34721835520433</v>
@@ -33119,7 +33119,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O28" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P28" t="n">
         <v>101.5244172557076</v>
@@ -33131,13 +33131,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S28" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T28" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H29" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I29" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J29" t="n">
         <v>158.8284895773074</v>
@@ -33189,13 +33189,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L29" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M29" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N29" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O29" t="n">
         <v>315.3014173789723</v>
@@ -33210,13 +33210,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S29" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T29" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H30" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I30" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J30" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K30" t="n">
         <v>161.6816141806598</v>
@@ -33286,16 +33286,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R30" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S30" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T30" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H31" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I31" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J31" t="n">
         <v>59.34721835520433</v>
@@ -33356,7 +33356,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O31" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P31" t="n">
         <v>101.5244172557076</v>
@@ -33368,13 +33368,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S31" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T31" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H32" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I32" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J32" t="n">
         <v>158.8284895773074</v>
@@ -33426,13 +33426,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L32" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M32" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N32" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O32" t="n">
         <v>315.3014173789723</v>
@@ -33447,13 +33447,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S32" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T32" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H33" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I33" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J33" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K33" t="n">
         <v>161.6816141806598</v>
@@ -33523,16 +33523,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R33" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S33" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T33" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H34" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I34" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J34" t="n">
         <v>59.34721835520433</v>
@@ -33593,7 +33593,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O34" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P34" t="n">
         <v>101.5244172557076</v>
@@ -33605,13 +33605,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S34" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T34" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H35" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I35" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J35" t="n">
         <v>158.8284895773074</v>
@@ -33663,13 +33663,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L35" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M35" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N35" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O35" t="n">
         <v>315.3014173789723</v>
@@ -33684,13 +33684,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S35" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T35" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H36" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I36" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J36" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K36" t="n">
         <v>161.6816141806598</v>
@@ -33760,16 +33760,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R36" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S36" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T36" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H37" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I37" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J37" t="n">
         <v>59.34721835520433</v>
@@ -33830,7 +33830,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O37" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P37" t="n">
         <v>101.5244172557076</v>
@@ -33842,13 +33842,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S37" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T37" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H38" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I38" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J38" t="n">
         <v>158.8284895773074</v>
@@ -33900,13 +33900,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L38" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M38" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N38" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O38" t="n">
         <v>315.3014173789723</v>
@@ -33921,13 +33921,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S38" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T38" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H39" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I39" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J39" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K39" t="n">
         <v>161.6816141806598</v>
@@ -33997,16 +33997,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R39" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S39" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T39" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H40" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I40" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J40" t="n">
         <v>59.34721835520433</v>
@@ -34067,7 +34067,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O40" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P40" t="n">
         <v>101.5244172557076</v>
@@ -34079,13 +34079,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S40" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T40" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H41" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I41" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J41" t="n">
         <v>158.8284895773074</v>
@@ -34137,13 +34137,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L41" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M41" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N41" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O41" t="n">
         <v>315.3014173789723</v>
@@ -34158,13 +34158,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S41" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T41" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H42" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I42" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J42" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K42" t="n">
         <v>161.6816141806598</v>
@@ -34234,16 +34234,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R42" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S42" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T42" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H43" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I43" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J43" t="n">
         <v>59.34721835520433</v>
@@ -34304,7 +34304,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O43" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P43" t="n">
         <v>101.5244172557076</v>
@@ -34316,13 +34316,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S43" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T43" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.871349970718948</v>
+        <v>1.871349970718947</v>
       </c>
       <c r="H44" t="n">
-        <v>19.16496288762543</v>
+        <v>19.16496288762542</v>
       </c>
       <c r="I44" t="n">
-        <v>72.1452197461423</v>
+        <v>72.14521974614229</v>
       </c>
       <c r="J44" t="n">
         <v>158.8284895773074</v>
@@ -34374,13 +34374,13 @@
         <v>238.0427338378405</v>
       </c>
       <c r="L44" t="n">
-        <v>295.3130605042306</v>
+        <v>295.3130605042305</v>
       </c>
       <c r="M44" t="n">
         <v>328.5926805460036</v>
       </c>
       <c r="N44" t="n">
-        <v>333.9096536503089</v>
+        <v>333.9096536503088</v>
       </c>
       <c r="O44" t="n">
         <v>315.3014173789723</v>
@@ -34395,13 +34395,13 @@
         <v>117.5511875981742</v>
       </c>
       <c r="S44" t="n">
-        <v>42.64338745775806</v>
+        <v>42.64338745775805</v>
       </c>
       <c r="T44" t="n">
-        <v>8.191834496822198</v>
+        <v>8.191834496822196</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1497079976575158</v>
+        <v>0.1497079976575157</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.001260505559672</v>
+        <v>1.001260505559671</v>
       </c>
       <c r="H45" t="n">
-        <v>9.670068566852621</v>
+        <v>9.670068566852619</v>
       </c>
       <c r="I45" t="n">
         <v>34.47322354668168</v>
       </c>
       <c r="J45" t="n">
-        <v>94.5971603081618</v>
+        <v>94.59716030816179</v>
       </c>
       <c r="K45" t="n">
         <v>161.6816141806598</v>
@@ -34471,16 +34471,16 @@
         <v>127.810025236003</v>
       </c>
       <c r="R45" t="n">
-        <v>62.16598121360841</v>
+        <v>62.1659812136084</v>
       </c>
       <c r="S45" t="n">
         <v>18.59797474142634</v>
       </c>
       <c r="T45" t="n">
-        <v>4.035782476356745</v>
+        <v>4.035782476356744</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06587240168155738</v>
+        <v>0.06587240168155736</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8394231733409383</v>
+        <v>0.8394231733409382</v>
       </c>
       <c r="H46" t="n">
-        <v>7.463235122976712</v>
+        <v>7.463235122976711</v>
       </c>
       <c r="I46" t="n">
-        <v>25.24374415828932</v>
+        <v>25.24374415828931</v>
       </c>
       <c r="J46" t="n">
         <v>59.34721835520433</v>
@@ -34541,7 +34541,7 @@
         <v>128.4546388804366</v>
       </c>
       <c r="O46" t="n">
-        <v>118.6486499918629</v>
+        <v>118.6486499918628</v>
       </c>
       <c r="P46" t="n">
         <v>101.5244172557076</v>
@@ -34553,13 +34553,13 @@
         <v>37.74351832131163</v>
       </c>
       <c r="S46" t="n">
-        <v>14.62885657540526</v>
+        <v>14.62885657540525</v>
       </c>
       <c r="T46" t="n">
         <v>3.586626286093099</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04578671854586942</v>
+        <v>0.04578671854586941</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>158.169212442745</v>
       </c>
       <c r="K11" t="n">
-        <v>23.45512906898449</v>
+        <v>91.71024491792154</v>
       </c>
       <c r="L11" t="n">
-        <v>65.44080590849302</v>
+        <v>65.44080590849296</v>
       </c>
       <c r="M11" t="n">
         <v>104.0051031494127</v>
@@ -35424,13 +35424,13 @@
         <v>110.2319166436327</v>
       </c>
       <c r="O11" t="n">
-        <v>189.2083044507542</v>
+        <v>90.95566124282774</v>
       </c>
       <c r="P11" t="n">
-        <v>219.7970535656594</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>27.28621118065979</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="L12" t="n">
-        <v>219.7970535656594</v>
+        <v>82.31036273098906</v>
       </c>
       <c r="M12" t="n">
         <v>115.1158932689366</v>
@@ -35503,13 +35503,13 @@
         <v>132.353000539728</v>
       </c>
       <c r="O12" t="n">
-        <v>99.19400660129611</v>
+        <v>99.19400660129608</v>
       </c>
       <c r="P12" t="n">
-        <v>66.75318532598654</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="Q12" t="n">
-        <v>209.8081747474151</v>
+        <v>1.740154957413053</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N13" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O13" t="n">
         <v>153.2168580218339</v>
@@ -35652,7 +35652,7 @@
         <v>219.7970535656594</v>
       </c>
       <c r="L14" t="n">
-        <v>143.4982840699436</v>
+        <v>65.44080590849296</v>
       </c>
       <c r="M14" t="n">
         <v>104.0051031494127</v>
@@ -35661,7 +35661,7 @@
         <v>110.2319166436327</v>
       </c>
       <c r="O14" t="n">
-        <v>90.95566124282774</v>
+        <v>169.0131394042783</v>
       </c>
       <c r="P14" t="n">
         <v>43.65029411546044</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>102.065151062187</v>
+        <v>23.47872328993114</v>
       </c>
       <c r="K15" t="n">
-        <v>27.28621118065979</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="L15" t="n">
-        <v>82.31036273098908</v>
+        <v>219.7970535656594</v>
       </c>
       <c r="M15" t="n">
         <v>115.1158932689366</v>
@@ -35740,13 +35740,13 @@
         <v>132.353000539728</v>
       </c>
       <c r="O15" t="n">
-        <v>140.7969373012951</v>
+        <v>99.19400660129608</v>
       </c>
       <c r="P15" t="n">
         <v>60.57179439847093</v>
       </c>
       <c r="Q15" t="n">
-        <v>209.8081747474151</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N16" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O16" t="n">
         <v>153.2168580218339</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>86.18522384210607</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>360.5663581429959</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L17" t="n">
         <v>499.8084690409614</v>
       </c>
       <c r="M17" t="n">
-        <v>571.4991779819586</v>
+        <v>571.4991779819585</v>
       </c>
       <c r="N17" t="n">
         <v>565.0727180320962</v>
       </c>
       <c r="O17" t="n">
-        <v>486.9878497560829</v>
+        <v>238.5024170998464</v>
       </c>
       <c r="P17" t="n">
-        <v>43.65029411546044</v>
+        <v>378.3209506138024</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>102.0651510621869</v>
       </c>
       <c r="K18" t="n">
-        <v>27.28621118065979</v>
+        <v>302.3300576737415</v>
       </c>
       <c r="L18" t="n">
-        <v>455.5817578719412</v>
+        <v>467.9843218465866</v>
       </c>
       <c r="M18" t="n">
-        <v>599.4491595689366</v>
+        <v>599.4491595689365</v>
       </c>
       <c r="N18" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O18" t="n">
         <v>508.8108186490948</v>
       </c>
       <c r="P18" t="n">
-        <v>391.7730737840055</v>
+        <v>290.9694068239714</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N19" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O19" t="n">
         <v>153.2168580218339</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>147.5467558570192</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K20" t="n">
-        <v>360.5663581429959</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L20" t="n">
         <v>499.8084690409614</v>
       </c>
       <c r="M20" t="n">
-        <v>571.4991779819586</v>
+        <v>413.5410474622521</v>
       </c>
       <c r="N20" t="n">
-        <v>565.0727180320962</v>
+        <v>110.2319166436327</v>
       </c>
       <c r="O20" t="n">
-        <v>90.95566124282774</v>
+        <v>486.9878497560829</v>
       </c>
       <c r="P20" t="n">
         <v>378.3209506138024</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>102.0651510621869</v>
       </c>
       <c r="K21" t="n">
-        <v>27.28621118065979</v>
+        <v>302.3300576737415</v>
       </c>
       <c r="L21" t="n">
         <v>467.9843218465866</v>
       </c>
       <c r="M21" t="n">
-        <v>587.046595594291</v>
+        <v>599.4491595689365</v>
       </c>
       <c r="N21" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O21" t="n">
-        <v>508.8108186490948</v>
+        <v>408.0071516890606</v>
       </c>
       <c r="P21" t="n">
         <v>391.7730737840055</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N22" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O22" t="n">
         <v>153.2168580218339</v>
@@ -36360,16 +36360,16 @@
         <v>158.169212442745</v>
       </c>
       <c r="K23" t="n">
-        <v>202.6082276232898</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L23" t="n">
         <v>499.8084690409614</v>
       </c>
       <c r="M23" t="n">
-        <v>571.4991779819586</v>
+        <v>104.0051031494127</v>
       </c>
       <c r="N23" t="n">
-        <v>110.2319166436327</v>
+        <v>419.7678609564721</v>
       </c>
       <c r="O23" t="n">
         <v>486.9878497560829</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>102.065151062187</v>
+        <v>1.261484102153737</v>
       </c>
       <c r="K24" t="n">
-        <v>302.3300576737416</v>
+        <v>302.3300576737415</v>
       </c>
       <c r="L24" t="n">
-        <v>82.31036273098908</v>
+        <v>467.9843218465866</v>
       </c>
       <c r="M24" t="n">
-        <v>599.4491595689366</v>
+        <v>599.4491595689365</v>
       </c>
       <c r="N24" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O24" t="n">
         <v>508.8108186490948</v>
       </c>
       <c r="P24" t="n">
-        <v>387.9354713696893</v>
+        <v>391.7730737840055</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N25" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O25" t="n">
         <v>153.2168580218339</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K26" t="n">
-        <v>360.5663581429959</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L26" t="n">
-        <v>441.2109380887924</v>
+        <v>221.6801936311346</v>
       </c>
       <c r="M26" t="n">
-        <v>571.4991779819586</v>
+        <v>571.4991779819585</v>
       </c>
       <c r="N26" t="n">
         <v>565.0727180320962</v>
       </c>
       <c r="O26" t="n">
-        <v>90.95566124282774</v>
+        <v>486.9878497560829</v>
       </c>
       <c r="P26" t="n">
-        <v>378.3209506138024</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q26" t="n">
         <v>206.1442868091885</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>102.0651510621869</v>
       </c>
       <c r="K27" t="n">
-        <v>27.28621118065979</v>
+        <v>302.3300576737415</v>
       </c>
       <c r="L27" t="n">
-        <v>455.5817578719412</v>
+        <v>467.9843218465866</v>
       </c>
       <c r="M27" t="n">
-        <v>599.4491595689366</v>
+        <v>599.4491595689365</v>
       </c>
       <c r="N27" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O27" t="n">
         <v>508.8108186490948</v>
       </c>
       <c r="P27" t="n">
-        <v>391.7730737840055</v>
+        <v>290.9694068239727</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N28" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O28" t="n">
         <v>153.2168580218339</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K29" t="n">
-        <v>112.0809254867599</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L29" t="n">
         <v>499.8084690409614</v>
       </c>
       <c r="M29" t="n">
-        <v>571.4991779819586</v>
+        <v>571.4991779819585</v>
       </c>
       <c r="N29" t="n">
-        <v>565.0727180320962</v>
+        <v>110.2319166436327</v>
       </c>
       <c r="O29" t="n">
         <v>486.9878497560829</v>
       </c>
       <c r="P29" t="n">
-        <v>378.3209506138024</v>
+        <v>220.3628200940968</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>102.0651510621869</v>
       </c>
       <c r="K30" t="n">
-        <v>27.28621118065979</v>
+        <v>201.5263907137083</v>
       </c>
       <c r="L30" t="n">
-        <v>455.5817578719412</v>
+        <v>467.9843218465866</v>
       </c>
       <c r="M30" t="n">
-        <v>599.4491595689366</v>
+        <v>599.4491595689365</v>
       </c>
       <c r="N30" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O30" t="n">
         <v>508.8108186490948</v>
@@ -36931,7 +36931,7 @@
         <v>391.7730737840055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N31" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O31" t="n">
         <v>153.2168580218339</v>
@@ -37071,22 +37071,22 @@
         <v>158.169212442745</v>
       </c>
       <c r="K32" t="n">
-        <v>360.5663581429959</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L32" t="n">
         <v>499.8084690409614</v>
       </c>
       <c r="M32" t="n">
-        <v>571.4991779819586</v>
+        <v>571.4991779819585</v>
       </c>
       <c r="N32" t="n">
-        <v>158.4180729331154</v>
+        <v>565.0727180320962</v>
       </c>
       <c r="O32" t="n">
-        <v>486.9878497560829</v>
+        <v>415.0038611554442</v>
       </c>
       <c r="P32" t="n">
-        <v>378.3209506138024</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>102.0651510621869</v>
       </c>
       <c r="K33" t="n">
-        <v>27.28621118065979</v>
+        <v>302.3300576737415</v>
       </c>
       <c r="L33" t="n">
-        <v>467.9843218465866</v>
+        <v>367.1806548865534</v>
       </c>
       <c r="M33" t="n">
-        <v>599.4491595689366</v>
+        <v>599.4491595689365</v>
       </c>
       <c r="N33" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O33" t="n">
         <v>508.8108186490948</v>
       </c>
       <c r="P33" t="n">
-        <v>379.3705098093601</v>
+        <v>391.7730737840055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N34" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O34" t="n">
         <v>153.2168580218339</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>86.18522384210607</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K35" t="n">
-        <v>360.5663581429959</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L35" t="n">
-        <v>499.8084690409614</v>
+        <v>65.44080590849296</v>
       </c>
       <c r="M35" t="n">
-        <v>571.4991779819586</v>
+        <v>571.4991779819585</v>
       </c>
       <c r="N35" t="n">
         <v>565.0727180320962</v>
@@ -37323,10 +37323,10 @@
         <v>486.9878497560829</v>
       </c>
       <c r="P35" t="n">
-        <v>43.65029411546044</v>
+        <v>199.8896818381016</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>206.1442868091885</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>102.0651510621869</v>
       </c>
       <c r="K36" t="n">
-        <v>27.28621118065979</v>
+        <v>302.3300576737415</v>
       </c>
       <c r="L36" t="n">
-        <v>455.5817578719412</v>
+        <v>467.9843218465866</v>
       </c>
       <c r="M36" t="n">
-        <v>599.4491595689366</v>
+        <v>498.6454926089032</v>
       </c>
       <c r="N36" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O36" t="n">
         <v>508.8108186490948</v>
@@ -37405,7 +37405,7 @@
         <v>391.7730737840055</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N37" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O37" t="n">
         <v>153.2168580218339</v>
@@ -37545,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>360.5663581429959</v>
+        <v>360.5663581429958</v>
       </c>
       <c r="L38" t="n">
-        <v>251.3230363847256</v>
+        <v>499.8084690409614</v>
       </c>
       <c r="M38" t="n">
-        <v>571.4991779819586</v>
+        <v>571.4991779819585</v>
       </c>
       <c r="N38" t="n">
         <v>565.0727180320962</v>
@@ -37560,10 +37560,10 @@
         <v>486.9878497560829</v>
       </c>
       <c r="P38" t="n">
-        <v>378.3209506138024</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>86.18522384210631</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>102.0651510621869</v>
       </c>
       <c r="K39" t="n">
-        <v>27.28621118065979</v>
+        <v>302.3300576737415</v>
       </c>
       <c r="L39" t="n">
-        <v>455.5817578719412</v>
+        <v>467.9843218465866</v>
       </c>
       <c r="M39" t="n">
-        <v>599.4491595689366</v>
+        <v>599.4491595689365</v>
       </c>
       <c r="N39" t="n">
-        <v>630.8690698570235</v>
+        <v>132.353000539728</v>
       </c>
       <c r="O39" t="n">
-        <v>508.8108186490948</v>
+        <v>408.0071516890615</v>
       </c>
       <c r="P39" t="n">
         <v>391.7730737840055</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>209.8081747474151</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N40" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O40" t="n">
         <v>153.2168580218339</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="L41" t="n">
-        <v>219.7970535656594</v>
+        <v>65.44080590849296</v>
       </c>
       <c r="M41" t="n">
         <v>104.0051031494127</v>
       </c>
       <c r="N41" t="n">
-        <v>110.2319166436327</v>
+        <v>170.3118477976294</v>
       </c>
       <c r="O41" t="n">
         <v>90.95566124282774</v>
       </c>
       <c r="P41" t="n">
-        <v>43.65029411546044</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="Q41" t="n">
-        <v>81.87044294702928</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>102.065151062187</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>27.28621118065979</v>
+        <v>27.28621118065976</v>
       </c>
       <c r="L42" t="n">
-        <v>82.31036273098908</v>
+        <v>123.0583589535727</v>
       </c>
       <c r="M42" t="n">
-        <v>158.479898726056</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="N42" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="O42" t="n">
-        <v>219.7970535656594</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="P42" t="n">
         <v>60.57179439847093</v>
@@ -37949,7 +37949,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N43" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O43" t="n">
         <v>153.2168580218339</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>158.169212442745</v>
       </c>
       <c r="K44" t="n">
-        <v>73.73269791046752</v>
+        <v>23.45512906898446</v>
       </c>
       <c r="L44" t="n">
-        <v>65.44080590849302</v>
+        <v>65.44080590849296</v>
       </c>
       <c r="M44" t="n">
         <v>104.0051031494127</v>
@@ -38031,10 +38031,10 @@
         <v>110.2319166436327</v>
       </c>
       <c r="O44" t="n">
-        <v>90.95566124282774</v>
+        <v>159.2107770917648</v>
       </c>
       <c r="P44" t="n">
-        <v>219.7970535656594</v>
+        <v>43.65029411546044</v>
       </c>
       <c r="Q44" t="n">
         <v>206.1442868091885</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>219.7970535656594</v>
+        <v>27.28621118065976</v>
       </c>
       <c r="L45" t="n">
-        <v>82.31036273098908</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="M45" t="n">
-        <v>115.1158932689366</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="N45" t="n">
-        <v>134.093155497141</v>
+        <v>219.7970535656593</v>
       </c>
       <c r="O45" t="n">
-        <v>99.19400660129611</v>
+        <v>123.0583589535727</v>
       </c>
       <c r="P45" t="n">
-        <v>219.7970535656594</v>
+        <v>60.57179439847093</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>181.7808059779794</v>
       </c>
       <c r="N46" t="n">
-        <v>182.6516585450745</v>
+        <v>182.6516585450744</v>
       </c>
       <c r="O46" t="n">
         <v>153.2168580218339</v>
